--- a/data/hotels_by_city/Dallas/Dallas_shard_231.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_231.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="609">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Carolyn G</t>
+  </si>
+  <si>
     <t>05/29/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>We stayed here for several weeks when we needed an extended stay option.  The location is fabulous  - really.  You can walk to the Trinity Trails along the river.  There are restaurants and shopping that is an easy walk as well as a major shopping area just across University Drive.  Several restaurants are an easy walk as well as the food trucks that come regularly.  This location has easy access to all of the attractions of Fort Worth.  Our room was very clean and comfortable.  It did need a bit of maintenance with regards to some plumbing.  Rachel in the office is delightful and worked very hard to meet our needs.More</t>
   </si>
   <si>
+    <t>Adele F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r572860392-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -216,6 +222,9 @@
     <t>I stayed here again in January and February for my annual visit - 4th time - with family.  Rachel and staff are professional, friendly and helpful.  The stove, refrigerator and microwave were clean and in good working order.  Housekeeping is good.  This time due to bad weather and delayed flight I had to extend my stay for a couple of days and no problem.  I hope to continue to stay here on future visits.  Mrs. Adele ForrestMore</t>
   </si>
   <si>
+    <t>Kay L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r575810102-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -246,6 +255,9 @@
     <t>They overbooked and cancelled our reservations only 3 hours before check-in for a room I booked numerous weeks earlier. Was during a conference in the city so it was extremely hard to find another hotel and took a couple of hours to find other accommodations. Awful customer service and obviously even more awful logistics team. Will never book this hotel chain again.More</t>
   </si>
   <si>
+    <t>Don W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r570636096-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -276,6 +288,9 @@
     <t>A great location. Within walking distance is a dozen restaurants, too many shops to count, a Starbucks, and the Trinity Trail. The rooms are a bit small, but very well designed and very livable. The staff has been super at every turn, quickly responding to requests and answering questions about the area.I stayed here for almost 4 months between homes, and I highly recommend this hotel.More</t>
   </si>
   <si>
+    <t>Abby J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r570634071-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -291,6 +306,9 @@
     <t>The hotel was beautiful. I highly recommend this hotel. The staff was helpful and respectful. Accommodated my needs! Great experience! The beds were comfortable. Perfect get away. It's really quiet!!!More</t>
   </si>
   <si>
+    <t>Cassandra R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r567803279-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -318,6 +336,9 @@
     <t>Clean rooms, great staff! Location was great! As a solo female traveler on business, I had no issues. The staff was always polite and available.  There are great walking/ running trails nearby as well as a food truck park. I definitely would stay here again ( Medical Center location near the Fort Worth zoo).More</t>
   </si>
   <si>
+    <t>Stephanie C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r566198754-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -342,6 +363,9 @@
     <t>There are some things that could be worked on.  The company needs pest control more often.  These are things that no customer should ever see.  Hotels should take pride in this area.  I noticed a lot of people are using the hotel as a place to reside, however this should not be an excuse.More</t>
   </si>
   <si>
+    <t>287paulaz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r563281528-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -366,6 +390,9 @@
     <t>If you only need a place to stay and a place to prepare some food, this is an excellent location for visiting TCU, the Medical Center, or the Cultural District.  The price is very good. Parking convenient.  Not all amenities in room, but you can ask for what you need.More</t>
   </si>
   <si>
+    <t>stephanierU629NK</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r546438161-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -390,6 +417,9 @@
     <t>Love this hotel. Its where we always choose to stay when we travel to fort worth for my sons doctors appointment. Friendly staff and they are very attentive. Only had one problem and that was just a mix up in rooms but other then that never had a problem More</t>
   </si>
   <si>
+    <t>wllmonb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r546034785-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -414,6 +444,9 @@
     <t>after staying in this hotel the last few months a younge lady named Kristin helped me set my WiFi up and was always smiling and made me feel welcome. I’m here for all the N.C.H.A events at Will Rogers. I have stayed at other hotels but this hotel is where I’ll being stay for every event for now on due to the hospitality of all the employees here from Kristin, Rachael and Jonathan at the front desk. Last time I was here I left my planner with all my meds and when I called to see if I left it, they told me they had it held back for me. When I came back to stay and received my meds back EVERY single pill was still in there. More</t>
   </si>
   <si>
+    <t>flapsdown5</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r537435882-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -441,6 +474,9 @@
     <t>The location of the hotel is excellent near shops, walking trails, several restaurants and  close to TCU University. The rooms are very clean and the property is very well kept.  MY HATS OFF TO Johnathon, Sarah, Christine, Madison, Arturo, and the cleaning crew for all  they do. Rachel your leadership  speaks volumes . Keep up the excellent work.  I have and will continue to refer others to this hotel.More</t>
   </si>
   <si>
+    <t>darkdiam0nd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r534467178-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -468,6 +504,9 @@
     <t>Sarah was very helpful and kind. She's an excellent asset to Extended Stay America - Fort Worth - Medical Center.  She made my stay in Fort Worth enjoyable.  I felt safe and comfortable here and would recommend to anyone needing a homey place to stay.More</t>
   </si>
   <si>
+    <t>jakec250</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r534386026-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -483,6 +522,9 @@
     <t>Clean room, no Ice machines, in the hot states we travelled in. No daily room service only on or after you stay 7 days . Great location close to our  venue. It's great that it had a reftig, microwave etc More</t>
   </si>
   <si>
+    <t>leahmarie8287</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r534022484-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -507,6 +549,9 @@
     <t>This hotel has amazing service, Sarah was super friendly and extremely helpful. This place is more like home away from home. The trinity trails is conveniently located near the hotel. Also there are plenty of place to eat and shop within walking distance.More</t>
   </si>
   <si>
+    <t>Cody L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r532144268-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -531,6 +576,9 @@
     <t>Been here for a while for family and the place has been great to stay. The kitchen has been well stocked with pots, pans, utensils, toaster, coffee pot, microwave, and many other helpful items. Would stay here again.More</t>
   </si>
   <si>
+    <t>zoulogy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r528162331-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -556,6 +604,9 @@
   </si>
   <si>
     <t>I stayed at Extended Stay America FW Medical Center for one month while relocating to town in August. The location is great - close to the cultural district with access to the Trinity River trails and a great food truck park next door. At the front desk Jonathon and Rachel, the GM, provided service that exceeded service that I have received at four diamond hotels. Thank you!More</t>
+  </si>
+  <si>
+    <t>Steve P</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r512959121-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
@@ -600,6 +651,9 @@
 Its not the Ritz, but we didn't pay...This is really a 'Location, Location, Location' property. We arrived a little earlier than expected (two hours) and didn't really expect to be able to check in. The receptionist was very friendly and we were shown to our room right away.I must admit, other than our check in, I thought we had made a big mistake. The room, although having a fridge, sink, microwave and cooker, had no utensils whatsoever. We then saw the card on the side and all of the implements available for our stay. Knives, forks, pots, pans, toaster, etc.,etc., were available from reception and were soon brought along to us.There was everything we would need, including a comfortable bed, and good aircon. The breakfast was limited to bagel or muffin, along with coffee, but we had the ability to prepare much as we wanted in our room.What was really nice about this stay, other than the very friendly staff, was its close position to all we might need.There was a very large supermarket within metres, several very nice pub/restaurants within close walking distance and the most beautiful river walk, either into Fort Worth, if you had the inclination or the other way.We walked into FW and thoroughly enjoyed it, and the next day followed the path/bike track in the opposite direction. it was all a perfect end to a very enjoyable American holiday.Its not the Ritz, but we didn't pay for, nor expect it. Just a genuine and hospitable motel that was well worth the tariff.More</t>
   </si>
   <si>
+    <t>Andrea K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r510045905-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -645,6 +699,9 @@
     <t>I have stayed at the ESA Medical Centre for 4 years now for about 6 weeks each time when visiting from Canada..  I have always found the rooms to be well kept and clean, the kitchen and bathroom in good working order, the front desk staff very helpful, courteous, friendly and professional.  I would definitely recommend this hotel.   Mrs. Adele Forrest.More</t>
   </si>
   <si>
+    <t>jamesr1212</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r499674613-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -669,6 +726,9 @@
     <t>The property was in a great location. The property looked clean and in great condition. The rooms were very clean and in good shape. Everything in the room was in good working condition. The staff was very friendly and helpful.More</t>
   </si>
   <si>
+    <t>jtkatiem</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r499566761-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -693,6 +753,9 @@
     <t>always a good value for a quick stay. In a place where all other hotels are OVER $100-150, this one is refreshing. Not a luxury vacation hotel. If you are looking for that you will have to pay the price!!More</t>
   </si>
   <si>
+    <t>9notstayinghereagain</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r498944743-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -717,6 +780,9 @@
     <t>Tiny shabby rooms, unresponsive staff, a place of last resort. I guess it beats a park bench but don't go in with the expectation that you will actually be comfortable staying here for a week, I know I wasn't. More</t>
   </si>
   <si>
+    <t>E7088RVmelaniem</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r495037611-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -744,6 +810,9 @@
     <t>extended Stay America , Fort Worth Medical Center is a great location for taking in the sites, taking care of medical issures, and must relaxing!  close to the Will Rogers Colisieum and other museums, along the Trinity River walk / trail.  Take advantage of the Food Truck park just next door.  Very comfortable!More</t>
   </si>
   <si>
+    <t>joyf287</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r494445727-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -768,6 +837,9 @@
     <t>Clean with comfy bed, but old, dark, dingy. No staff after 10pm, very limited breakfast. Nearby area is VERY nice, walking distance to shopping, dining, running trails, etc. Convenient to both universities. But there are several other hotels in the immediate area that would be MUCH nicer for just a little bit more.More</t>
   </si>
   <si>
+    <t>justinloveless89</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r493551386-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -777,6 +849,9 @@
     <t>June 16, 2017</t>
   </si>
   <si>
+    <t>petercK2129FA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r493663732-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -801,6 +876,9 @@
     <t>excellent location and facilities for my wife and I.  right on the river walking trail...coffee and light breakfast service was very friendly.      location off the interstate highway easy to find and parking right at the door...More</t>
   </si>
   <si>
+    <t>Andrea B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r492467631-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -825,6 +903,9 @@
     <t>The staff, Sarah, Kristen, &amp; J. C. Had a solution for challenge.  The grocery store nearby was a godsend for saving on meal expense. The team mentioned above knew best travel options (Lyft usually) to get the many museums nearby.More</t>
   </si>
   <si>
+    <t>G3678TEronaldd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r491421050-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -849,6 +930,9 @@
     <t>We have stayed in Stay America properties that were much better!  Perhaps they think because of the great location they can get away with not maintaining the property. We choose to stay near the waterfront and wanted to take advantage of  the convenience of walking to nearby attractions.More</t>
   </si>
   <si>
+    <t>abfletcher1001</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r491244205-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -870,6 +954,9 @@
     <t>Nice hotel for the money. Staff friendly and helpful. No pool or ice machine. Beautiful walking/biking trail along the river. Food truck park was phenomenal.Hotel near zoo and Texas Christian University.More</t>
   </si>
   <si>
+    <t>Esperanza U</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r490344971-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -897,6 +984,9 @@
     <t>I stayed at this location from December to March.  I truly enjoyed my time here.  There is so much to do! Within a quarter of a mile, you have a very nice outdoor mall with the Apple Store, Pottery Barn, Victoria's Secret, etc.  There is a great zoo as well as the beautiful TCU campus within a 5 minute drive of the hotel.I stayed in a suite that had a queen bed and a couch which was a nice size for the 3 months I was at the hotel.  I had my dog with me, the hotel is very dog friendly.  There are some residents that did not pick up after their dogs, just like any other location you will stay at that allows pets.  The grounds were kept up very well though, it was the parking lot area and entrance to the Trinity Trails that you really had to look out for land mines.  There were a few shady residents at the hotel, but the management did a very good job at kicking out any trouble makers.  I had no incidents or issues with any of the residents while I was there.  For the most part, the people who are here are traveling professionals. The staff is so responsive to any concerns and will do everything in their power to provide a pleasant stay!More</t>
   </si>
   <si>
+    <t>Marc A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r490221726-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -921,6 +1011,9 @@
     <t>I come often for work. It's quiet, clean, and safe. Shopping and restaurants are within walking distance, and a great zoo and botanical garden are nearby as well as a walking/bike path along the Trinity River behind the property. The staff, especially Sarah, have always been helpful and professional. More</t>
   </si>
   <si>
+    <t>DMcHone</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r488065268-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -948,6 +1041,9 @@
     <t>This hotel is in a nice part of town. Parks, walking and biking paths, the zoo, starbucks. Everything you need. The staff is very friendly and extremely helpful. Great rates too. This is the place I would stay anytime I have business in the area.More</t>
   </si>
   <si>
+    <t>Beckytexasusa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r486762338-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -975,6 +1071,9 @@
     <t>I don't normally stay at extended stay hotels, but for this business trip my business partner talked me into it. The rooms are modern, but a little cramped. The kitchenette had full sized refrigerator, and was nice. Bathroom door opened into kitchen do with 4 people staying in room, was not always convenient. Sleeper sofa was not comfortable(I was told). No maid service for duration of 4 day stay. Asked for towels and was told person at front desk was by self, so we had to go get them, although one time they did bring. Surprisingly, they offered a Grab and go breakfast was protein bars and muffins. Was unexpected, so was nice. Staff was friendly, although limited. Parking was not very convenient as we got back from job around 11 PM every night. It is in a nice area with many good restaurants around. More</t>
   </si>
   <si>
+    <t>Labdude100</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r485425464-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -999,6 +1098,9 @@
     <t>Stayed here previously and keep coming back because of the helpful staff (Sarah helped me check in on my most recent visit) , superb location (on the river adjacent to top restaurants, retail , shopping and near to the incredible Will Rogers Complex, Fort Worth Botanic Gardens /Cultural District Museums, Medical community hospitals, TCU etc). Rooms are all non smoking and well maintained clean. A+ rating and a true bargain at this price point!More</t>
   </si>
   <si>
+    <t>DAVID S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r483191857-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1023,6 +1125,9 @@
     <t>I stayed in Fort Worth for 5 months for work. After using another hotel ( very bad) I found this place . Fantastic experience there. Rooms are clean the staff is friendly and highly accommodating. They have kitchen units and dishes you can get. For a night or long stay in the area, stay here it's great, in a great area, a safe, secure area. When you book speak to Rachel , or Sarah they are the greatest!! I will stay here again if ever in the area. More</t>
   </si>
   <si>
+    <t>Cynthia R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r483060015-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1047,6 +1152,9 @@
     <t>We have been stay here since October of 2016, but the staff here is so incredibly awesome everyday and anytime we need anything they are always willing to go above and beyond for us. I am very happy that we decided to stay here in instead of somewhere else.  Thank-you so much to the staff at Extended Stay America!! Your the Best!! More</t>
   </si>
   <si>
+    <t>haliramsey</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r482503127-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1071,6 +1179,9 @@
     <t>My husband and I had to stay here for a week due to our 3 month old baby girl under going her first of many open heart surgeries at Cooks. The room was nice and clean. Like a mini apartment. The staff made sure we had everything we needed. The bathroom was clean. Our bed was comfortable. It was quiet every night. Sarah always asked about our baby girl. We will definitely be staying here every time we come back to Cook Children's! Thank you Sarah for your kindness and good vibes for our princess. We will most definitely be staying here again! More</t>
   </si>
   <si>
+    <t>mistyeveritt28</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r472661617-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1119,6 +1230,9 @@
     <t>I was pleasantly surprised upon my arrival at the Extended Stay hotel. The location offer you everything you could desire, shopping  several restaurants , entertainment i.e. the Zoo as well as other attractions. There is no need for a car everything is within walking distance.More</t>
   </si>
   <si>
+    <t>pktoi231</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r470988384-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1137,6 +1251,9 @@
     <t>I stayed in room 105 and it has to be one of the most cramped rooms I have ever stayed in.  I booked my room through a 3rd party site so it was discounted and maybe they assign this room for those who use discounts.First the pros:Seemed to be a good location, close to the zoo and places to eatStaff was niceRoom was clean and the bed was comfortableBathroom and shower was good with good water pressureThe cons:Room was very cramped...there is a chair wedged between the bed and a/c unit. Who want to sit in a chair with air from the unit blowing on you (see pic)Lots of train noise from horns blowing at all times of day and night.  Nothing the property can do about it but it can be distractingRipped towelsBacked to the room being cramped....you need to be a thin model in order to use the fridge.  The door opens the wrong way (you can see in the pics)Wifi is so-soBased on my experience staying in this room I may look at other places firstMore</t>
   </si>
   <si>
+    <t>Yusha N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r470946142-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1149,6 +1266,9 @@
     <t>The AC is broken, got switched to another room, and then now we have bed bugs. They won't refund our money and the district manager is rude. I would say this place is dirty, and all the workers value is money.</t>
   </si>
   <si>
+    <t>_jhedbergsr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r469223402-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1173,6 +1293,9 @@
     <t>Great customer service on phone and in person from everyone at the office.  Nice clean rooms and clean laundry area. Perfect location for shopping and food, with the food trucks almost right outside your hotel room.  Shopping just a block away across the street.More</t>
   </si>
   <si>
+    <t>Cmorris31709</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r468614094-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1188,6 +1311,9 @@
     <t xml:space="preserve">My Mom booked through Priceline and surprised my husband and I for our anniversary! Surprised we were when Priceline told us this would be our hotel! We were here for 5 minutes before we left refund and all! Upon doing a walk through as soon as we got there, we found out all that we needed to know! This is basically an all bills paid apartment! Sarah was very nice and understanding! I'm not sure if this was a diabetic syringe or not but regardless, that was something that we should have never been exposed to! Do your research people! </t>
   </si>
   <si>
+    <t>Stephen M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r464909658-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1206,6 +1332,9 @@
     <t>This is an extended stay hotel with a refrigerator, electric stove top, microwave, and some kitchen and dining equipment provided. A walking trail along the Trinity River is behind the hotel and 100 feet away is a food truck park that has several trucks in it several nights a week. On the other side of food truck park facing the river is a yoga studio. A zoo, botanic gardens, and TCU are a couple minutes away. A grocery store, fast food and other restaurants, and a diverse shopping center is a few hundred feet away. The entrance ramp to I-30 for those who must go to Dallas is a mile away and downtown Fort Worth is 5-6 minutes away. It is very hard to beat this location. But I have to say an employee named Sarah has really made my extended stay even easier. She has been helpful each time I have requested assistance.More</t>
   </si>
   <si>
+    <t>vickiebrewer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r459045846-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1230,6 +1359,9 @@
     <t>The rooms were  nice, but what really made my stay easier was the employees   The employees were wonderful.   They rearranged the cleaning schedule to fit my work schedule. They knew be by name.  Leaving my family for a business trip is hard, having friendly people around willing to listen/talk made me feel more at ease.More</t>
   </si>
   <si>
+    <t>slegerjr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r458283390-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1275,6 +1407,9 @@
     <t>I have stayed in this hotel since the first week in December 2016 until present (February 2017) because of a work related move from Florida to Texas.  I had never been to the Fort Worth area until this move and I can say, staying in this location of Extended Stay has eased the burden of a cross-country move.  First, the location is amazing.  The Trinity Trails are located directly behind the hotel, so you are able to enjoy the outdoors in a beautiful setting.  Also, the food truck park offers a diverse array of foods within steps of the hotel Wednesday-Sunday.  Speaking of food, within 100 feet is a grocery store, restaurants, and fast food.  Second, the staff has been amazing.  One in particular, Sarah, consistently goes above and beyond to help make your stay the best it can be.  She has been an instrumental part of my smooth transition in the Fort Worth area.  Although I am moving into a house next month, I would stay at this location again and again if the need ever arises. I highly recommend this location.More</t>
   </si>
   <si>
+    <t>Anthony H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r457748871-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1302,6 +1437,9 @@
     <t>Excellent customer service Sarah was awesome help me out find good places to eat ask me if my room up to my standards the room was very satisfied 5 minutes from the zoo 5 minutes  to downtown this is a excellent location also there is a jogging path behind the hotelMore</t>
   </si>
   <si>
+    <t>wildersuzanne</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r457746496-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1359,6 +1497,9 @@
     <t>It was one of the best customer service I have ever had. The staff was very nice and helpful. I couldn't ask for any better. The rooms were nice and beds comfortable.  Great night sleep. Great location and lots to do here.More</t>
   </si>
   <si>
+    <t>Joseph O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r442745245-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1381,6 +1522,9 @@
   </si>
   <si>
     <t>I went on Thanksgiving Holiday Vacation with family of 4. Apart from little confusion at check-in when I was given a standard room instead of the deluxe room that was been reserved for me. I was told that the deluxe room has been filled up and I should get it the next day. Come the next day,  I was not given the deluxe room. Note was jotted for Mr. Derek the hotel manager for adjustment but In all may 3 night, Mr. Derek never return my call nor make any adjournment on my 3 nights stayed. I rated the service good because the staffs were great like Mr. Steve and Ms. Sandra along with two gentle white staff that works night shift, one front desk attendant and the Janitor whom I don't recall their names. I will stay at this location at other times but I am not please with Mr. Derek the hotel manager that failed to response to various voicemails nor the notes left for him by his various staffs.More</t>
+  </si>
+  <si>
+    <t>yourlostimnot</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r419851307-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
@@ -1403,6 +1547,9 @@
 We arrived at 11:45 pm and the lobby was locked and no one in it to let us in.  I called on their courtesy phone, which it took forever to get a response and was told they would call the night staff who would let us in the lobby and check us into our room.  After 10-15 min, no one had come to the lobby so that I called on their courtesy phone again.  They phone rep said she would call back in 10 min to confirm that someone had contacted the night staff person.  Phone rep called back 15 min later and said that the district manager would call me to make arrangements for a room at another Extended Stay.  By then it was 12:30 am.  At that point I told them I going to find a room at another hotel chain.  Without too much trouble I found a Hilton that was...To visit my daughter at TCU for parents weekend, my wife booked a room at Extended Stay at Fort Worth/TCU – Medical Center several weeks in advance.  She was told that since we would be arriving late, we needed to notify them earlier on the day of arrival that we would still use the room.  My wife spoke on the phone with a representative that morning who confirmed that the room would be held and that someone would be staffing the front desk to let us in.We arrived at 11:45 pm and the lobby was locked and no one in it to let us in.  I called on their courtesy phone, which it took forever to get a response and was told they would call the night staff who would let us in the lobby and check us into our room.  After 10-15 min, no one had come to the lobby so that I called on their courtesy phone again.  They phone rep said she would call back in 10 min to confirm that someone had contacted the night staff person.  Phone rep called back 15 min later and said that the district manager would call me to make arrangements for a room at another Extended Stay.  By then it was 12:30 am.  At that point I told them I going to find a room at another hotel chain.  Without too much trouble I found a Hilton that was 4 – 5 miles away.  When we arrived there was an actual person at the front desk.  My wife and I were quickly checked in.  The room at the Hilton was about $6 more a night but the room was very nice and the service 10x better.  On prior occasions I have stayed at Extended Stay.  The service and rooms were mediocre to average but for the price tolerable.  Never again.  There is a Marriott Courtyard within a quarter mile of the Extended Stay at Fort Worth/Medical Center, which I have been told has excellent service.  That is where we will be staying at our future visits to TCU.  As much as possible, I will avoid staying at Extended Stay for all other future travel as well.More</t>
   </si>
   <si>
+    <t>AvocadoBanana</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r407756832-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1430,6 +1577,9 @@
     <t>Stayed there for 3 nights. Was a little apprehensive initially due to bad reviews and had low expectation. The room wasn't superb but it's not bad either. At least I can see the management putting in effort to decorate the room with nice paintings. The toilet is clean however there's a perpetual smoke smell in the toilet that couldn't be removed even with the fan extractor on. The towels also had stains on it. The receptionists were friendly but do take note that you can't deposit your luggage with the reception if you reach before the check in time. Food is nearby, canes and ol south pancake in front and another two food joints behind. University village is across the road. Overall it's a good stay with the price I paid.More</t>
   </si>
   <si>
+    <t>Cary V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r401092037-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1454,6 +1604,9 @@
     <t>This was a last minute stay because we were in town for my sons surgery and needed a place quick. The room looked nice, but it was extremely cramped. The room we had smelled like smoke, and the breakfast advertised was not what they had. Instead of the apple and oranges you'd normally find at a place that offers breakfast all they had was granola bars and coffee. More</t>
   </si>
   <si>
+    <t>Bill G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r370224602-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1481,6 +1634,9 @@
     <t>The location had great staff, quick friendly service.  The room had everything I needed. Parking was more than ample.  Great location relative to museums and art galleries.  I will definitely stay there again.More</t>
   </si>
   <si>
+    <t>statemployee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r357306918-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1508,6 +1664,9 @@
     <t>This is a real mixed bag. The staff is nice. It's located near a food truck park and near a lot of wonderful Fort Worth places to see. However, the rooms are tiny. The bed sheets are so thin you can see the (horrible) mattress beneath. There was hair in the bathtub. I kept my shoes on until I went to bed because the carpet looked gross. The lighting was very dim even with all the lights on, which may have been a purposeful tactic to keep the grossness hidden. Looking back, I probably should've complained, but I was on my company's dime and was only there a night. People should know: it looks fine from the outside, staff is fine, horrible accommodations.More</t>
   </si>
   <si>
+    <t>iPhiLgreat</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r353738055-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1532,6 +1691,9 @@
     <t>Not a whole lot to say except it got the job done for a short weekend in fort worth. Basic necessities, bed was comfortable enough and there was free wifi and showtime. The price was affordable and there weren't really any great expectations with what we paid for.More</t>
   </si>
   <si>
+    <t>P7169QLbenjamins</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r344589763-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1559,6 +1721,9 @@
     <t>I have stayed here three times in the past four years and for extended periods of time due to work assignments. This last time tho hit it out of the park. Staff is friendly and helpful. the cleaning staff is A+. The kitchen is perfect for saving money and for helping me from eating out all the time. The location couldnt be better, being close to the highway and toll road as well as night life. The food truck park that is next door right off the Trinity river is a nice amenity as well as the jogging path behind the hotel that will take you into the park. Cant wait to come back again.More</t>
   </si>
   <si>
+    <t>GALLAWAYTX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r340976312-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1583,6 +1748,9 @@
     <t>We have never stayed at an Extended Stay before and were really surprised! We found the property (outside) to be clean and well-manicured - as well as many 3-4 star hotels/motels. The room was small compared to the larger chains, only a full-size bed, but there was a great bathroom, kitchen area with full size (clean) fridge, stove and microwave.  The most important thing was the BED was very comfortable and the pillows were as well. It is within walking distance of several good restaurants (Chili's, IHOP, Cain's) and has a FRESH Market 100 yards away.  Exxon station with a convenience store if less than 100 yards away, and it is 2 minutes north of I-30, and traffic noise is no problem. There is no elevator and rooms on the north side would probably be quieter, although both sides are OK in that respect.We absolutely plan to stay there again when we are in the area.More</t>
   </si>
   <si>
+    <t>LNTexas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r325571587-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1604,6 +1772,9 @@
     <t>I sat on hold, in my car, trying to verify for late arrival with the Fort Worth location.  I had to call the 800 number twice instead of the actual hotel and somehow they got a live person to verify.  I checked in after 10:30 p.m. and the room had trash, used towels on the floor and someone had been on the bed.  The second room was fine.  You can hear everything that's said anywhere near outside your door, coming up the stairs, etc.  The bolt lock didn't work.  There's no coffee maker (without an extra charge) and no coffee.  Too basic and small for the money.  Who doesn't have coffee in a hotel?More</t>
   </si>
   <si>
+    <t>Tomasz L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r294825194-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1631,6 +1802,9 @@
     <t>I liked the place. It has very good location near museum district. Lot of restaurants and shops nearby. Nice, clean room with comfortable bed. AC running smoothly what is crucial in summer here.  Staff was very helpful. Wi-Fi worked well even without paying additional fees.More</t>
   </si>
   <si>
+    <t>Fordman352</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r293767244-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1653,6 +1827,9 @@
   </si>
   <si>
     <t>This was my first experience with Extended Stay America chain. I am use to full housekeeping services, but was OK with not having as I was in town alone and for only 4 nights. The young man that checked me in was very professional and friendly. I requested a coffee maker and he gave me a coffee pack for each morning I was there then brought me a coffee maker to my room within 1/2 hour of checking in. Every staff person I encountered at the front desk was very friendly and helpful. The price was good as well. The A/C worked well which was a blessing in the TX heat! You have a good staff here. Keep up the good work.More</t>
+  </si>
+  <si>
+    <t>Reilly1104</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r262361381-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
@@ -2184,43 +2361,47 @@
       <c r="A2" t="n">
         <v>32595</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>11998</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -2238,56 +2419,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>32595</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>136228</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2301,56 +2486,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>32595</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>44865</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2362,56 +2551,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>32595</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>18625</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P5" t="n">
         <v>4</v>
@@ -2429,56 +2622,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="X5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Y5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>32595</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>136229</v>
+      </c>
+      <c r="C6" t="s">
+        <v>90</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2490,56 +2687,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="X6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Y6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>32595</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>136230</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="K7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="L7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="O7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2551,56 +2752,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="X7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="Y7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>32595</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>1367</v>
+      </c>
+      <c r="C8" t="s">
+        <v>106</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="K8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="O8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P8" t="n">
         <v>3</v>
@@ -2622,56 +2827,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="X8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="Y8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>32595</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>136231</v>
+      </c>
+      <c r="C9" t="s">
+        <v>115</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="J9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="K9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="L9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O9" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -2693,56 +2902,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="X9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="Y9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>32595</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>136232</v>
+      </c>
+      <c r="C10" t="s">
+        <v>124</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="J10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="K10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="L10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -2764,47 +2977,51 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="X10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="Y10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>32595</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>136233</v>
+      </c>
+      <c r="C11" t="s">
+        <v>133</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="J11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="K11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="L11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
@@ -2821,56 +3038,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="X11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="Y11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>32595</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>136234</v>
+      </c>
+      <c r="C12" t="s">
+        <v>142</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="J12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="K12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="L12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="O12" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -2886,56 +3107,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="X12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="Y12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>32595</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>136235</v>
+      </c>
+      <c r="C13" t="s">
+        <v>152</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="J13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="K13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="L13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2953,56 +3178,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="X13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="Y13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>32595</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>136236</v>
+      </c>
+      <c r="C14" t="s">
+        <v>162</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="J14" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="K14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="O14" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P14" t="n">
         <v>3</v>
@@ -3024,56 +3253,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="X14" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="Y14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>32595</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>136237</v>
+      </c>
+      <c r="C15" t="s">
+        <v>168</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="J15" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="K15" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="L15" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="O15" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3085,56 +3318,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="X15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="Y15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>32595</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>136238</v>
+      </c>
+      <c r="C16" t="s">
+        <v>177</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="J16" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="K16" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="L16" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3146,56 +3383,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="X16" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="Y16" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>32595</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>136239</v>
+      </c>
+      <c r="C17" t="s">
+        <v>186</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="J17" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="K17" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="L17" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="O17" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3207,56 +3448,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="X17" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="Y17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>32595</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>45030</v>
+      </c>
+      <c r="C18" t="s">
+        <v>196</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="J18" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="K18" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="L18" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="O18" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3274,56 +3519,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="X18" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="Y18" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>32595</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>38399</v>
+      </c>
+      <c r="C19" t="s">
+        <v>207</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="J19" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="K19" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="L19" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="O19" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P19" t="n">
         <v>4</v>
@@ -3345,56 +3594,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="X19" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="Y19" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>32595</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>136227</v>
+      </c>
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="J20" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="K20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L20" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="O20" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3410,56 +3663,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="X20" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="Y20" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>32595</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>136240</v>
+      </c>
+      <c r="C21" t="s">
+        <v>223</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="J21" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="K21" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="L21" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="O21" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -3481,56 +3738,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="X21" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="Y21" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>32595</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>136241</v>
+      </c>
+      <c r="C22" t="s">
+        <v>232</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="J22" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="K22" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="L22" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="O22" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -3552,56 +3813,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="X22" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="Y22" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>32595</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>136242</v>
+      </c>
+      <c r="C23" t="s">
+        <v>241</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="J23" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="K23" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="L23" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="n">
         <v>1</v>
@@ -3623,56 +3888,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="X23" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="Y23" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>32595</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>136243</v>
+      </c>
+      <c r="C24" t="s">
+        <v>250</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="J24" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="K24" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="L24" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="n">
         <v>4</v>
@@ -3694,56 +3963,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="X24" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="Y24" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>32595</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>136244</v>
+      </c>
+      <c r="C25" t="s">
+        <v>260</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="J25" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="K25" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="L25" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="M25" t="n">
         <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="n">
         <v>2</v>
@@ -3765,41 +4038,45 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="X25" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="Y25" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>32595</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>136245</v>
+      </c>
+      <c r="C26" t="s">
+        <v>269</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="J26" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="K26" t="s"/>
       <c r="L26" t="s"/>
@@ -3815,51 +4092,52 @@
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
-      <c r="Y26" t="s"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>32595</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>136246</v>
+      </c>
+      <c r="C27" t="s">
+        <v>273</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="J27" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="K27" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="L27" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="O27" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -3879,56 +4157,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="X27" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="Y27" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>32595</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>4235</v>
+      </c>
+      <c r="C28" t="s">
+        <v>282</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="J28" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="K28" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="L28" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="O28" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -3950,56 +4232,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="X28" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="Y28" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>32595</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>136247</v>
+      </c>
+      <c r="C29" t="s">
+        <v>291</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="J29" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="K29" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="L29" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="M29" t="n">
         <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="n">
         <v>2</v>
@@ -4021,56 +4307,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="X29" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="Y29" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>32595</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>136248</v>
+      </c>
+      <c r="C30" t="s">
+        <v>300</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="J30" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="K30" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="L30" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
@@ -4092,56 +4382,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="X30" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="Y30" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>32595</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>136249</v>
+      </c>
+      <c r="C31" t="s">
+        <v>308</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="J31" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="K31" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="L31" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="O31" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -4159,56 +4453,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="X31" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="Y31" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>32595</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>109704</v>
+      </c>
+      <c r="C32" t="s">
+        <v>318</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="J32" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="K32" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="L32" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="O32" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4220,56 +4518,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="X32" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="Y32" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>32595</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>136250</v>
+      </c>
+      <c r="C33" t="s">
+        <v>327</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="J33" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="K33" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="L33" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="O33" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -4287,56 +4589,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="X33" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="Y33" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>32595</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>136251</v>
+      </c>
+      <c r="C34" t="s">
+        <v>337</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="J34" t="s">
-        <v>308</v>
+        <v>340</v>
       </c>
       <c r="K34" t="s">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="L34" t="s">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="O34" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4348,56 +4654,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="X34" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="Y34" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>32595</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>136252</v>
+      </c>
+      <c r="C35" t="s">
+        <v>347</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="J35" t="s">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="K35" t="s">
-        <v>318</v>
+        <v>351</v>
       </c>
       <c r="L35" t="s">
-        <v>319</v>
+        <v>352</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="O35" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -4415,56 +4725,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>320</v>
+        <v>353</v>
       </c>
       <c r="X35" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="Y35" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>32595</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>136253</v>
+      </c>
+      <c r="C36" t="s">
+        <v>356</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>323</v>
+        <v>357</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>324</v>
+        <v>358</v>
       </c>
       <c r="J36" t="s">
-        <v>325</v>
+        <v>359</v>
       </c>
       <c r="K36" t="s">
-        <v>326</v>
+        <v>360</v>
       </c>
       <c r="L36" t="s">
-        <v>327</v>
+        <v>361</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="O36" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4476,56 +4790,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="X36" t="s">
-        <v>329</v>
+        <v>363</v>
       </c>
       <c r="Y36" t="s">
-        <v>330</v>
+        <v>364</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>32595</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>11440</v>
+      </c>
+      <c r="C37" t="s">
+        <v>365</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="J37" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="K37" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="L37" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="O37" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4537,56 +4855,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="X37" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="Y37" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>32595</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>136254</v>
+      </c>
+      <c r="C38" t="s">
+        <v>374</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="J38" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="K38" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L38" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4598,56 +4920,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="X38" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="Y38" t="s">
-        <v>346</v>
+        <v>382</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>32595</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>136255</v>
+      </c>
+      <c r="C39" t="s">
+        <v>383</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="J39" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="K39" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="L39" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4663,56 +4989,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>352</v>
+        <v>389</v>
       </c>
       <c r="X39" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="Y39" t="s">
-        <v>353</v>
+        <v>390</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>32595</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>136233</v>
+      </c>
+      <c r="C40" t="s">
+        <v>142</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="J40" t="s">
-        <v>356</v>
+        <v>393</v>
       </c>
       <c r="K40" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="L40" t="s">
-        <v>358</v>
+        <v>395</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>359</v>
+        <v>396</v>
       </c>
       <c r="O40" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="n">
@@ -4728,56 +5058,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>360</v>
+        <v>397</v>
       </c>
       <c r="X40" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="Y40" t="s">
-        <v>362</v>
+        <v>399</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>32595</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>136256</v>
+      </c>
+      <c r="C41" t="s">
+        <v>400</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>363</v>
+        <v>401</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>364</v>
+        <v>402</v>
       </c>
       <c r="J41" t="s">
-        <v>365</v>
+        <v>403</v>
       </c>
       <c r="K41" t="s">
-        <v>366</v>
+        <v>404</v>
       </c>
       <c r="L41" t="s">
-        <v>367</v>
+        <v>405</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="O41" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -4795,50 +5129,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>368</v>
+        <v>406</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>32595</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>136257</v>
+      </c>
+      <c r="C42" t="s">
+        <v>407</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>369</v>
+        <v>408</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>370</v>
+        <v>409</v>
       </c>
       <c r="J42" t="s">
-        <v>365</v>
+        <v>403</v>
       </c>
       <c r="K42" t="s">
-        <v>371</v>
+        <v>410</v>
       </c>
       <c r="L42" t="s">
-        <v>372</v>
+        <v>411</v>
       </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="O42" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -4856,50 +5194,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>372</v>
+        <v>411</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>32595</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>136258</v>
+      </c>
+      <c r="C43" t="s">
+        <v>412</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>373</v>
+        <v>413</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>374</v>
+        <v>414</v>
       </c>
       <c r="J43" t="s">
-        <v>375</v>
+        <v>415</v>
       </c>
       <c r="K43" t="s">
-        <v>376</v>
+        <v>416</v>
       </c>
       <c r="L43" t="s">
-        <v>377</v>
+        <v>417</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="O43" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -4915,56 +5257,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>378</v>
+        <v>418</v>
       </c>
       <c r="X43" t="s">
-        <v>379</v>
+        <v>419</v>
       </c>
       <c r="Y43" t="s">
-        <v>380</v>
+        <v>420</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>32595</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>136259</v>
+      </c>
+      <c r="C44" t="s">
+        <v>421</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>381</v>
+        <v>422</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>382</v>
+        <v>423</v>
       </c>
       <c r="J44" t="s">
-        <v>383</v>
+        <v>424</v>
       </c>
       <c r="K44" t="s">
-        <v>384</v>
+        <v>425</v>
       </c>
       <c r="L44" t="s">
-        <v>385</v>
+        <v>426</v>
       </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="O44" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -4978,50 +5324,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>385</v>
+        <v>426</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>32595</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>7344</v>
+      </c>
+      <c r="C45" t="s">
+        <v>427</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>386</v>
+        <v>428</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>387</v>
+        <v>429</v>
       </c>
       <c r="J45" t="s">
-        <v>388</v>
+        <v>430</v>
       </c>
       <c r="K45" t="s">
-        <v>389</v>
+        <v>431</v>
       </c>
       <c r="L45" t="s">
-        <v>390</v>
+        <v>432</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="O45" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5041,50 +5391,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>32595</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>136260</v>
+      </c>
+      <c r="C46" t="s">
+        <v>434</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>392</v>
+        <v>435</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>393</v>
+        <v>436</v>
       </c>
       <c r="J46" t="s">
-        <v>394</v>
+        <v>437</v>
       </c>
       <c r="K46" t="s">
-        <v>395</v>
+        <v>438</v>
       </c>
       <c r="L46" t="s">
-        <v>396</v>
+        <v>439</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="O46" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P46" t="n">
         <v>4</v>
@@ -5102,56 +5456,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>397</v>
+        <v>440</v>
       </c>
       <c r="X46" t="s">
-        <v>398</v>
+        <v>441</v>
       </c>
       <c r="Y46" t="s">
-        <v>399</v>
+        <v>442</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>32595</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>136261</v>
+      </c>
+      <c r="C47" t="s">
+        <v>443</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>401</v>
+        <v>445</v>
       </c>
       <c r="J47" t="s">
-        <v>402</v>
+        <v>446</v>
       </c>
       <c r="K47" t="s">
-        <v>403</v>
+        <v>447</v>
       </c>
       <c r="L47" t="s">
-        <v>404</v>
+        <v>448</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="O47" t="s">
-        <v>405</v>
+        <v>449</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -5165,50 +5523,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>404</v>
+        <v>448</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>32595</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>136248</v>
+      </c>
+      <c r="C48" t="s">
+        <v>308</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>406</v>
+        <v>450</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>407</v>
+        <v>451</v>
       </c>
       <c r="J48" t="s">
-        <v>408</v>
+        <v>452</v>
       </c>
       <c r="K48" t="s">
-        <v>409</v>
+        <v>453</v>
       </c>
       <c r="L48" t="s">
-        <v>410</v>
+        <v>454</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>411</v>
+        <v>455</v>
       </c>
       <c r="O48" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="n">
@@ -5226,56 +5588,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>412</v>
+        <v>456</v>
       </c>
       <c r="X48" t="s">
-        <v>413</v>
+        <v>457</v>
       </c>
       <c r="Y48" t="s">
-        <v>414</v>
+        <v>458</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>32595</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>674</v>
+      </c>
+      <c r="C49" t="s">
+        <v>459</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>415</v>
+        <v>460</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>416</v>
+        <v>461</v>
       </c>
       <c r="J49" t="s">
-        <v>417</v>
+        <v>462</v>
       </c>
       <c r="K49" t="s">
-        <v>418</v>
+        <v>463</v>
       </c>
       <c r="L49" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>420</v>
+        <v>465</v>
       </c>
       <c r="O49" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -5287,56 +5653,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>421</v>
+        <v>466</v>
       </c>
       <c r="X49" t="s">
-        <v>422</v>
+        <v>467</v>
       </c>
       <c r="Y49" t="s">
-        <v>423</v>
+        <v>468</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>32595</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>136262</v>
+      </c>
+      <c r="C50" t="s">
+        <v>469</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>424</v>
+        <v>470</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>425</v>
+        <v>471</v>
       </c>
       <c r="J50" t="s">
-        <v>417</v>
+        <v>462</v>
       </c>
       <c r="K50" t="s">
-        <v>426</v>
+        <v>472</v>
       </c>
       <c r="L50" t="s">
-        <v>427</v>
+        <v>473</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="O50" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -5352,56 +5722,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>412</v>
+        <v>456</v>
       </c>
       <c r="X50" t="s">
-        <v>413</v>
+        <v>457</v>
       </c>
       <c r="Y50" t="s">
-        <v>428</v>
+        <v>474</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>32595</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>136252</v>
+      </c>
+      <c r="C51" t="s">
+        <v>356</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>429</v>
+        <v>475</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>430</v>
+        <v>476</v>
       </c>
       <c r="J51" t="s">
-        <v>431</v>
+        <v>477</v>
       </c>
       <c r="K51" t="s">
-        <v>432</v>
+        <v>478</v>
       </c>
       <c r="L51" t="s">
-        <v>433</v>
+        <v>479</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="O51" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -5413,56 +5787,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>434</v>
+        <v>480</v>
       </c>
       <c r="X51" t="s">
-        <v>435</v>
+        <v>481</v>
       </c>
       <c r="Y51" t="s">
-        <v>436</v>
+        <v>482</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>32595</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>136239</v>
+      </c>
+      <c r="C52" t="s">
+        <v>223</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>437</v>
+        <v>483</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>438</v>
+        <v>484</v>
       </c>
       <c r="J52" t="s">
-        <v>439</v>
+        <v>485</v>
       </c>
       <c r="K52" t="s">
-        <v>440</v>
+        <v>486</v>
       </c>
       <c r="L52" t="s">
-        <v>441</v>
+        <v>487</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="O52" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -5474,56 +5852,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>434</v>
+        <v>480</v>
       </c>
       <c r="X52" t="s">
-        <v>435</v>
+        <v>481</v>
       </c>
       <c r="Y52" t="s">
-        <v>442</v>
+        <v>488</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>32595</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>1255</v>
+      </c>
+      <c r="C53" t="s">
+        <v>489</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>443</v>
+        <v>490</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>444</v>
+        <v>491</v>
       </c>
       <c r="J53" t="s">
-        <v>445</v>
+        <v>492</v>
       </c>
       <c r="K53" t="s">
-        <v>446</v>
+        <v>493</v>
       </c>
       <c r="L53" t="s">
-        <v>447</v>
+        <v>494</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>411</v>
+        <v>455</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -5535,56 +5917,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>448</v>
+        <v>495</v>
       </c>
       <c r="X53" t="s">
-        <v>449</v>
+        <v>496</v>
       </c>
       <c r="Y53" t="s">
-        <v>450</v>
+        <v>497</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>32595</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>136263</v>
+      </c>
+      <c r="C54" t="s">
+        <v>498</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>451</v>
+        <v>499</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>452</v>
+        <v>500</v>
       </c>
       <c r="J54" t="s">
-        <v>453</v>
+        <v>501</v>
       </c>
       <c r="K54" t="s">
-        <v>454</v>
+        <v>502</v>
       </c>
       <c r="L54" t="s">
-        <v>455</v>
+        <v>503</v>
       </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
       <c r="N54" t="s">
-        <v>359</v>
+        <v>396</v>
       </c>
       <c r="O54" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -5600,50 +5986,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>456</v>
+        <v>504</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>32595</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>136264</v>
+      </c>
+      <c r="C55" t="s">
+        <v>505</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>457</v>
+        <v>506</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>458</v>
+        <v>507</v>
       </c>
       <c r="J55" t="s">
-        <v>459</v>
+        <v>508</v>
       </c>
       <c r="K55" t="s">
-        <v>460</v>
+        <v>509</v>
       </c>
       <c r="L55" t="s">
-        <v>461</v>
+        <v>510</v>
       </c>
       <c r="M55" t="n">
         <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>462</v>
+        <v>511</v>
       </c>
       <c r="O55" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -5655,56 +6045,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>463</v>
+        <v>512</v>
       </c>
       <c r="X55" t="s">
-        <v>464</v>
+        <v>513</v>
       </c>
       <c r="Y55" t="s">
-        <v>465</v>
+        <v>514</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>32595</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>136265</v>
+      </c>
+      <c r="C56" t="s">
+        <v>515</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>466</v>
+        <v>516</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>467</v>
+        <v>517</v>
       </c>
       <c r="J56" t="s">
-        <v>468</v>
+        <v>518</v>
       </c>
       <c r="K56" t="s">
-        <v>469</v>
+        <v>519</v>
       </c>
       <c r="L56" t="s">
-        <v>470</v>
+        <v>520</v>
       </c>
       <c r="M56" t="n">
         <v>2</v>
       </c>
       <c r="N56" t="s">
-        <v>462</v>
+        <v>511</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
@@ -5716,56 +6110,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>471</v>
+        <v>521</v>
       </c>
       <c r="X56" t="s">
-        <v>472</v>
+        <v>522</v>
       </c>
       <c r="Y56" t="s">
-        <v>473</v>
+        <v>523</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>32595</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>10306</v>
+      </c>
+      <c r="C57" t="s">
+        <v>524</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>474</v>
+        <v>525</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>475</v>
+        <v>526</v>
       </c>
       <c r="J57" t="s">
-        <v>476</v>
+        <v>527</v>
       </c>
       <c r="K57" t="s">
-        <v>477</v>
+        <v>528</v>
       </c>
       <c r="L57" t="s">
-        <v>478</v>
+        <v>529</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>479</v>
+        <v>530</v>
       </c>
       <c r="O57" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P57" t="n">
         <v>4</v>
@@ -5783,56 +6181,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>480</v>
+        <v>531</v>
       </c>
       <c r="X57" t="s">
-        <v>481</v>
+        <v>532</v>
       </c>
       <c r="Y57" t="s">
-        <v>482</v>
+        <v>533</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>32595</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>136266</v>
+      </c>
+      <c r="C58" t="s">
+        <v>534</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>483</v>
+        <v>535</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>484</v>
+        <v>536</v>
       </c>
       <c r="J58" t="s">
-        <v>485</v>
+        <v>537</v>
       </c>
       <c r="K58" t="s">
-        <v>486</v>
+        <v>538</v>
       </c>
       <c r="L58" t="s">
-        <v>487</v>
+        <v>539</v>
       </c>
       <c r="M58" t="n">
         <v>2</v>
       </c>
       <c r="N58" t="s">
-        <v>488</v>
+        <v>540</v>
       </c>
       <c r="O58" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P58" t="n">
         <v>3</v>
@@ -5850,56 +6252,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>489</v>
+        <v>541</v>
       </c>
       <c r="X58" t="s">
-        <v>490</v>
+        <v>542</v>
       </c>
       <c r="Y58" t="s">
-        <v>491</v>
+        <v>543</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>32595</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>136267</v>
+      </c>
+      <c r="C59" t="s">
+        <v>544</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>492</v>
+        <v>545</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>493</v>
+        <v>546</v>
       </c>
       <c r="J59" t="s">
-        <v>494</v>
+        <v>547</v>
       </c>
       <c r="K59" t="s">
-        <v>495</v>
+        <v>548</v>
       </c>
       <c r="L59" t="s">
-        <v>496</v>
+        <v>549</v>
       </c>
       <c r="M59" t="n">
         <v>3</v>
       </c>
       <c r="N59" t="s">
-        <v>488</v>
+        <v>540</v>
       </c>
       <c r="O59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P59" t="n">
         <v>4</v>
@@ -5917,56 +6323,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>497</v>
+        <v>550</v>
       </c>
       <c r="X59" t="s">
-        <v>498</v>
+        <v>551</v>
       </c>
       <c r="Y59" t="s">
-        <v>499</v>
+        <v>552</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>32595</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>136268</v>
+      </c>
+      <c r="C60" t="s">
+        <v>553</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>500</v>
+        <v>554</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>501</v>
+        <v>555</v>
       </c>
       <c r="J60" t="s">
-        <v>502</v>
+        <v>556</v>
       </c>
       <c r="K60" t="s">
-        <v>503</v>
+        <v>557</v>
       </c>
       <c r="L60" t="s">
-        <v>504</v>
+        <v>558</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>505</v>
+        <v>559</v>
       </c>
       <c r="O60" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="s"/>
@@ -5982,56 +6392,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>506</v>
+        <v>560</v>
       </c>
       <c r="X60" t="s">
-        <v>507</v>
+        <v>561</v>
       </c>
       <c r="Y60" t="s">
-        <v>508</v>
+        <v>562</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>32595</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>136269</v>
+      </c>
+      <c r="C61" t="s">
+        <v>563</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>509</v>
+        <v>564</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>510</v>
+        <v>565</v>
       </c>
       <c r="J61" t="s">
-        <v>511</v>
+        <v>566</v>
       </c>
       <c r="K61" t="s">
-        <v>512</v>
+        <v>567</v>
       </c>
       <c r="L61" t="s">
-        <v>513</v>
+        <v>568</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>505</v>
+        <v>559</v>
       </c>
       <c r="O61" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="n">
@@ -6049,56 +6463,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>514</v>
+        <v>569</v>
       </c>
       <c r="X61" t="s">
-        <v>515</v>
+        <v>570</v>
       </c>
       <c r="Y61" t="s">
-        <v>516</v>
+        <v>571</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>32595</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>136270</v>
+      </c>
+      <c r="C62" t="s">
+        <v>572</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>517</v>
+        <v>573</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>518</v>
+        <v>574</v>
       </c>
       <c r="J62" t="s">
-        <v>519</v>
+        <v>575</v>
       </c>
       <c r="K62" t="s">
-        <v>520</v>
+        <v>576</v>
       </c>
       <c r="L62" t="s">
-        <v>521</v>
+        <v>577</v>
       </c>
       <c r="M62" t="n">
         <v>3</v>
       </c>
       <c r="N62" t="s">
-        <v>522</v>
+        <v>578</v>
       </c>
       <c r="O62" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P62" t="s"/>
       <c r="Q62" t="s"/>
@@ -6116,50 +6534,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>523</v>
+        <v>579</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>32595</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>136271</v>
+      </c>
+      <c r="C63" t="s">
+        <v>580</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>524</v>
+        <v>581</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>525</v>
+        <v>582</v>
       </c>
       <c r="J63" t="s">
-        <v>526</v>
+        <v>583</v>
       </c>
       <c r="K63" t="s">
-        <v>527</v>
+        <v>584</v>
       </c>
       <c r="L63" t="s">
-        <v>528</v>
+        <v>585</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>529</v>
+        <v>586</v>
       </c>
       <c r="O63" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P63" t="n">
         <v>4</v>
@@ -6177,56 +6599,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>530</v>
+        <v>587</v>
       </c>
       <c r="X63" t="s">
-        <v>531</v>
+        <v>588</v>
       </c>
       <c r="Y63" t="s">
-        <v>532</v>
+        <v>589</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>32595</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>136272</v>
+      </c>
+      <c r="C64" t="s">
+        <v>590</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>533</v>
+        <v>591</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>534</v>
+        <v>592</v>
       </c>
       <c r="J64" t="s">
-        <v>535</v>
+        <v>593</v>
       </c>
       <c r="K64" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="L64" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>529</v>
+        <v>586</v>
       </c>
       <c r="O64" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P64" t="s"/>
       <c r="Q64" t="s"/>
@@ -6242,56 +6668,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="X64" t="s">
-        <v>539</v>
+        <v>597</v>
       </c>
       <c r="Y64" t="s">
-        <v>540</v>
+        <v>598</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>32595</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>136273</v>
+      </c>
+      <c r="C65" t="s">
+        <v>599</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>541</v>
+        <v>600</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>542</v>
+        <v>601</v>
       </c>
       <c r="J65" t="s">
-        <v>543</v>
+        <v>602</v>
       </c>
       <c r="K65" t="s">
-        <v>544</v>
+        <v>603</v>
       </c>
       <c r="L65" t="s">
-        <v>545</v>
+        <v>604</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>546</v>
+        <v>605</v>
       </c>
       <c r="O65" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P65" t="s"/>
       <c r="Q65" t="s"/>
@@ -6303,13 +6733,13 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>547</v>
+        <v>606</v>
       </c>
       <c r="X65" t="s">
-        <v>548</v>
+        <v>607</v>
       </c>
       <c r="Y65" t="s">
-        <v>549</v>
+        <v>608</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_231.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_231.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="570">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,105 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Carolyn G</t>
-  </si>
-  <si>
-    <t>05/29/2018</t>
+    <t>08/19/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r606405480-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>55857</t>
+  </si>
+  <si>
+    <t>217719</t>
+  </si>
+  <si>
+    <t>606405480</t>
+  </si>
+  <si>
+    <t>08/14/2018</t>
+  </si>
+  <si>
+    <t>Good hotel</t>
+  </si>
+  <si>
+    <t>We stayed their for 8 nights at is was great. We had an issue with the fridge and called the manager and she said I will have a new one in your room today the front desk was good and it was easy to get to the convention center.We will stay their again next year.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Fort Worth - Medical Center, responded to this reviewResponded 5 days ago</t>
+  </si>
+  <si>
+    <t>Responded 5 days ago</t>
+  </si>
+  <si>
+    <t>We stayed their for 8 nights at is was great. We had an issue with the fridge and called the manager and she said I will have a new one in your room today the front desk was good and it was easy to get to the convention center.We will stay their again next year.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r570636096-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>570636096</t>
+  </si>
+  <si>
+    <t>04/02/2018</t>
+  </si>
+  <si>
+    <t>Awesome location, Great Staff, Clean and Comfortable rooms (just a bit small)</t>
+  </si>
+  <si>
+    <t>A great location. Within walking distance is a dozen restaurants, too many shops to count, a Starbucks, and the Trinity Trail. The rooms are a bit small, but very well designed and very livable. The staff has been super at every turn, quickly responding to requests and answering questions about the area.I stayed here for almost 4 months between homes, and I highly recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Fort Worth - Medical Center, responded to this reviewResponded April 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 3, 2018</t>
+  </si>
+  <si>
+    <t>A great location. Within walking distance is a dozen restaurants, too many shops to count, a Starbucks, and the Trinity Trail. The rooms are a bit small, but very well designed and very livable. The staff has been super at every turn, quickly responding to requests and answering questions about the area.I stayed here for almost 4 months between homes, and I highly recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r597479289-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>597479289</t>
+  </si>
+  <si>
+    <t>07/18/2018</t>
+  </si>
+  <si>
+    <t>Very Average</t>
+  </si>
+  <si>
+    <t>Pros: Friendly staff, very convenient location, economical.Cons: For being so blatant about "no smoking" in the room, the room smelled like musty smoke when I got there... Not pleasant for non-smokers. Rooms are small, don't have enough pillows, and anything you need must be requested/retrieved from the office. I've stayed at other Extended Stay America locations and this one is just old and dirty. I was wishing for a Red Roof Inn. Overall you'll get what you pay for and the staff does a good job considering.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Fort Worth - Medical Center, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Pros: Friendly staff, very convenient location, economical.Cons: For being so blatant about "no smoking" in the room, the room smelled like musty smoke when I got there... Not pleasant for non-smokers. Rooms are small, don't have enough pillows, and anything you need must be requested/retrieved from the office. I've stayed at other Extended Stay America locations and this one is just old and dirty. I was wishing for a Red Roof Inn. Overall you'll get what you pay for and the staff does a good job considering.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r580400911-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
-    <t>55857</t>
-  </si>
-  <si>
-    <t>217719</t>
-  </si>
-  <si>
     <t>580400911</t>
   </si>
   <si>
@@ -180,19 +264,43 @@
     <t>May 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>00esa, Manager at Extended Stay America - Fort Worth - Medical Center, responded to this reviewResponded 2 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 2 weeks ago</t>
+    <t>00esa, Manager at Extended Stay America - Fort Worth - Medical Center, responded to this reviewResponded May 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 15, 2018</t>
   </si>
   <si>
     <t>We stayed here for several weeks when we needed an extended stay option.  The location is fabulous  - really.  You can walk to the Trinity Trails along the river.  There are restaurants and shopping that is an easy walk as well as a major shopping area just across University Drive.  Several restaurants are an easy walk as well as the food trucks that come regularly.  This location has easy access to all of the attractions of Fort Worth.  Our room was very clean and comfortable.  It did need a bit of maintenance with regards to some plumbing.  Rachel in the office is delightful and worked very hard to meet our needs.More</t>
   </si>
   <si>
-    <t>Adele F</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r575810102-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>575810102</t>
+  </si>
+  <si>
+    <t>04/26/2018</t>
+  </si>
+  <si>
+    <t>Terrible customer service and logistics!</t>
+  </si>
+  <si>
+    <t>They overbooked and cancelled our reservations only 3 hours before check-in for a room I booked numerous weeks earlier. Was during a conference in the city so it was extremely hard to find another hotel and took a couple of hours to find other accommodations. Awful customer service and obviously even more awful logistics team. Will never book this hotel chain again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Fort Worth - Medical Center, responded to this reviewResponded April 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 26, 2018</t>
+  </si>
+  <si>
+    <t>They overbooked and cancelled our reservations only 3 hours before check-in for a room I booked numerous weeks earlier. Was during a conference in the city so it was extremely hard to find another hotel and took a couple of hours to find other accommodations. Awful customer service and obviously even more awful logistics team. Will never book this hotel chain again.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r572860392-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
@@ -222,75 +330,6 @@
     <t>I stayed here again in January and February for my annual visit - 4th time - with family.  Rachel and staff are professional, friendly and helpful.  The stove, refrigerator and microwave were clean and in good working order.  Housekeeping is good.  This time due to bad weather and delayed flight I had to extend my stay for a couple of days and no problem.  I hope to continue to stay here on future visits.  Mrs. Adele ForrestMore</t>
   </si>
   <si>
-    <t>Kay L</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r575810102-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
-  </si>
-  <si>
-    <t>575810102</t>
-  </si>
-  <si>
-    <t>04/26/2018</t>
-  </si>
-  <si>
-    <t>Terrible customer service and logistics!</t>
-  </si>
-  <si>
-    <t>They overbooked and cancelled our reservations only 3 hours before check-in for a room I booked numerous weeks earlier. Was during a conference in the city so it was extremely hard to find another hotel and took a couple of hours to find other accommodations. Awful customer service and obviously even more awful logistics team. Will never book this hotel chain again.MoreShow less</t>
-  </si>
-  <si>
-    <t>April 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>00esa, Manager at Extended Stay America - Fort Worth - Medical Center, responded to this reviewResponded 4 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 4 weeks ago</t>
-  </si>
-  <si>
-    <t>They overbooked and cancelled our reservations only 3 hours before check-in for a room I booked numerous weeks earlier. Was during a conference in the city so it was extremely hard to find another hotel and took a couple of hours to find other accommodations. Awful customer service and obviously even more awful logistics team. Will never book this hotel chain again.More</t>
-  </si>
-  <si>
-    <t>Don W</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r570636096-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
-  </si>
-  <si>
-    <t>570636096</t>
-  </si>
-  <si>
-    <t>04/02/2018</t>
-  </si>
-  <si>
-    <t>Awesome location, Great Staff, Clean and Comfortable rooms (just a bit small)</t>
-  </si>
-  <si>
-    <t>A great location. Within walking distance is a dozen restaurants, too many shops to count, a Starbucks, and the Trinity Trail. The rooms are a bit small, but very well designed and very livable. The staff has been super at every turn, quickly responding to requests and answering questions about the area.I stayed here for almost 4 months between homes, and I highly recommend this hotel.MoreShow less</t>
-  </si>
-  <si>
-    <t>February 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
-    <t>00esa, Manager at Extended Stay America - Fort Worth - Medical Center, responded to this reviewResponded April 3, 2018</t>
-  </si>
-  <si>
-    <t>Responded April 3, 2018</t>
-  </si>
-  <si>
-    <t>A great location. Within walking distance is a dozen restaurants, too many shops to count, a Starbucks, and the Trinity Trail. The rooms are a bit small, but very well designed and very livable. The staff has been super at every turn, quickly responding to requests and answering questions about the area.I stayed here for almost 4 months between homes, and I highly recommend this hotel.More</t>
-  </si>
-  <si>
-    <t>Abby J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r570634071-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -306,9 +345,6 @@
     <t>The hotel was beautiful. I highly recommend this hotel. The staff was helpful and respectful. Accommodated my needs! Great experience! The beds were comfortable. Perfect get away. It's really quiet!!!More</t>
   </si>
   <si>
-    <t>Cassandra R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r567803279-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -336,9 +372,6 @@
     <t>Clean rooms, great staff! Location was great! As a solo female traveler on business, I had no issues. The staff was always polite and available.  There are great walking/ running trails nearby as well as a food truck park. I definitely would stay here again ( Medical Center location near the Fort Worth zoo).More</t>
   </si>
   <si>
-    <t>Stephanie C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r566198754-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -363,9 +396,6 @@
     <t>There are some things that could be worked on.  The company needs pest control more often.  These are things that no customer should ever see.  Hotels should take pride in this area.  I noticed a lot of people are using the hotel as a place to reside, however this should not be an excuse.More</t>
   </si>
   <si>
-    <t>287paulaz</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r563281528-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -390,9 +420,6 @@
     <t>If you only need a place to stay and a place to prepare some food, this is an excellent location for visiting TCU, the Medical Center, or the Cultural District.  The price is very good. Parking convenient.  Not all amenities in room, but you can ask for what you need.More</t>
   </si>
   <si>
-    <t>stephanierU629NK</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r546438161-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -417,9 +444,6 @@
     <t>Love this hotel. Its where we always choose to stay when we travel to fort worth for my sons doctors appointment. Friendly staff and they are very attentive. Only had one problem and that was just a mix up in rooms but other then that never had a problem More</t>
   </si>
   <si>
-    <t>wllmonb</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r546034785-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -444,9 +468,6 @@
     <t>after staying in this hotel the last few months a younge lady named Kristin helped me set my WiFi up and was always smiling and made me feel welcome. I’m here for all the N.C.H.A events at Will Rogers. I have stayed at other hotels but this hotel is where I’ll being stay for every event for now on due to the hospitality of all the employees here from Kristin, Rachael and Jonathan at the front desk. Last time I was here I left my planner with all my meds and when I called to see if I left it, they told me they had it held back for me. When I came back to stay and received my meds back EVERY single pill was still in there. More</t>
   </si>
   <si>
-    <t>flapsdown5</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r537435882-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -474,9 +495,6 @@
     <t>The location of the hotel is excellent near shops, walking trails, several restaurants and  close to TCU University. The rooms are very clean and the property is very well kept.  MY HATS OFF TO Johnathon, Sarah, Christine, Madison, Arturo, and the cleaning crew for all  they do. Rachel your leadership  speaks volumes . Keep up the excellent work.  I have and will continue to refer others to this hotel.More</t>
   </si>
   <si>
-    <t>darkdiam0nd</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r534467178-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -504,9 +522,6 @@
     <t>Sarah was very helpful and kind. She's an excellent asset to Extended Stay America - Fort Worth - Medical Center.  She made my stay in Fort Worth enjoyable.  I felt safe and comfortable here and would recommend to anyone needing a homey place to stay.More</t>
   </si>
   <si>
-    <t>jakec250</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r534386026-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -522,9 +537,6 @@
     <t>Clean room, no Ice machines, in the hot states we travelled in. No daily room service only on or after you stay 7 days . Great location close to our  venue. It's great that it had a reftig, microwave etc More</t>
   </si>
   <si>
-    <t>leahmarie8287</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r534022484-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -549,9 +561,6 @@
     <t>This hotel has amazing service, Sarah was super friendly and extremely helpful. This place is more like home away from home. The trinity trails is conveniently located near the hotel. Also there are plenty of place to eat and shop within walking distance.More</t>
   </si>
   <si>
-    <t>Cody L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r532144268-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -576,9 +585,6 @@
     <t>Been here for a while for family and the place has been great to stay. The kitchen has been well stocked with pots, pans, utensils, toaster, coffee pot, microwave, and many other helpful items. Would stay here again.More</t>
   </si>
   <si>
-    <t>zoulogy</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r528162331-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -604,9 +610,6 @@
   </si>
   <si>
     <t>I stayed at Extended Stay America FW Medical Center for one month while relocating to town in August. The location is great - close to the cultural district with access to the Trinity River trails and a great food truck park next door. At the front desk Jonathon and Rachel, the GM, provided service that exceeded service that I have received at four diamond hotels. Thank you!More</t>
-  </si>
-  <si>
-    <t>Steve P</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r512959121-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
@@ -651,9 +654,6 @@
 Its not the Ritz, but we didn't pay...This is really a 'Location, Location, Location' property. We arrived a little earlier than expected (two hours) and didn't really expect to be able to check in. The receptionist was very friendly and we were shown to our room right away.I must admit, other than our check in, I thought we had made a big mistake. The room, although having a fridge, sink, microwave and cooker, had no utensils whatsoever. We then saw the card on the side and all of the implements available for our stay. Knives, forks, pots, pans, toaster, etc.,etc., were available from reception and were soon brought along to us.There was everything we would need, including a comfortable bed, and good aircon. The breakfast was limited to bagel or muffin, along with coffee, but we had the ability to prepare much as we wanted in our room.What was really nice about this stay, other than the very friendly staff, was its close position to all we might need.There was a very large supermarket within metres, several very nice pub/restaurants within close walking distance and the most beautiful river walk, either into Fort Worth, if you had the inclination or the other way.We walked into FW and thoroughly enjoyed it, and the next day followed the path/bike track in the opposite direction. it was all a perfect end to a very enjoyable American holiday.Its not the Ritz, but we didn't pay for, nor expect it. Just a genuine and hospitable motel that was well worth the tariff.More</t>
   </si>
   <si>
-    <t>Andrea K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r510045905-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -699,9 +699,6 @@
     <t>I have stayed at the ESA Medical Centre for 4 years now for about 6 weeks each time when visiting from Canada..  I have always found the rooms to be well kept and clean, the kitchen and bathroom in good working order, the front desk staff very helpful, courteous, friendly and professional.  I would definitely recommend this hotel.   Mrs. Adele Forrest.More</t>
   </si>
   <si>
-    <t>jamesr1212</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r499674613-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -726,9 +723,6 @@
     <t>The property was in a great location. The property looked clean and in great condition. The rooms were very clean and in good shape. Everything in the room was in good working condition. The staff was very friendly and helpful.More</t>
   </si>
   <si>
-    <t>jtkatiem</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r499566761-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -753,9 +747,6 @@
     <t>always a good value for a quick stay. In a place where all other hotels are OVER $100-150, this one is refreshing. Not a luxury vacation hotel. If you are looking for that you will have to pay the price!!More</t>
   </si>
   <si>
-    <t>9notstayinghereagain</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r498944743-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -780,9 +771,6 @@
     <t>Tiny shabby rooms, unresponsive staff, a place of last resort. I guess it beats a park bench but don't go in with the expectation that you will actually be comfortable staying here for a week, I know I wasn't. More</t>
   </si>
   <si>
-    <t>E7088RVmelaniem</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r495037611-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -810,9 +798,6 @@
     <t>extended Stay America , Fort Worth Medical Center is a great location for taking in the sites, taking care of medical issures, and must relaxing!  close to the Will Rogers Colisieum and other museums, along the Trinity River walk / trail.  Take advantage of the Food Truck park just next door.  Very comfortable!More</t>
   </si>
   <si>
-    <t>joyf287</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r494445727-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -837,19 +822,31 @@
     <t>Clean with comfy bed, but old, dark, dingy. No staff after 10pm, very limited breakfast. Nearby area is VERY nice, walking distance to shopping, dining, running trails, etc. Convenient to both universities. But there are several other hotels in the immediate area that would be MUCH nicer for just a little bit more.More</t>
   </si>
   <si>
-    <t>justinloveless89</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r493551386-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>493551386</t>
   </si>
   <si>
-    <t>June 16, 2017</t>
-  </si>
-  <si>
-    <t>petercK2129FA</t>
+    <t>06/16/2017</t>
+  </si>
+  <si>
+    <t>Great Staff and Location!</t>
+  </si>
+  <si>
+    <t>I was told ahead of time that this was a great location as far as things to keep you entertained and that was true. I was not told however how friendly the staff would be. Sarah was great and extremely helpful in helping me adjust to my temporary living situation. I was here for 3 months and never once had a bad experience!! I would definitely stay here again and I recommend this location for everybody.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Fort Worth - Medical Center, responded to this reviewResponded June 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 17, 2017</t>
+  </si>
+  <si>
+    <t>I was told ahead of time that this was a great location as far as things to keep you entertained and that was true. I was not told however how friendly the staff would be. Sarah was great and extremely helpful in helping me adjust to my temporary living situation. I was here for 3 months and never once had a bad experience!! I would definitely stay here again and I recommend this location for everybody.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r493663732-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
@@ -858,27 +855,15 @@
     <t>493663732</t>
   </si>
   <si>
-    <t>06/16/2017</t>
-  </si>
-  <si>
     <t>great value on the river in ft worth</t>
   </si>
   <si>
     <t>excellent location and facilities for my wife and I.  right on the river walking trail...coffee and light breakfast service was very friendly.      location off the interstate highway easy to find and parking right at the door...MoreShow less</t>
   </si>
   <si>
-    <t>00esa, General Manager at Extended Stay America - Fort Worth - Medical Center, responded to this reviewResponded June 17, 2017</t>
-  </si>
-  <si>
-    <t>Responded June 17, 2017</t>
-  </si>
-  <si>
     <t>excellent location and facilities for my wife and I.  right on the river walking trail...coffee and light breakfast service was very friendly.      location off the interstate highway easy to find and parking right at the door...More</t>
   </si>
   <si>
-    <t>Andrea B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r492467631-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -903,9 +888,6 @@
     <t>The staff, Sarah, Kristen, &amp; J. C. Had a solution for challenge.  The grocery store nearby was a godsend for saving on meal expense. The team mentioned above knew best travel options (Lyft usually) to get the many museums nearby.More</t>
   </si>
   <si>
-    <t>G3678TEronaldd</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r491421050-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -930,9 +912,6 @@
     <t>We have stayed in Stay America properties that were much better!  Perhaps they think because of the great location they can get away with not maintaining the property. We choose to stay near the waterfront and wanted to take advantage of  the convenience of walking to nearby attractions.More</t>
   </si>
   <si>
-    <t>abfletcher1001</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r491244205-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -954,9 +933,6 @@
     <t>Nice hotel for the money. Staff friendly and helpful. No pool or ice machine. Beautiful walking/biking trail along the river. Food truck park was phenomenal.Hotel near zoo and Texas Christian University.More</t>
   </si>
   <si>
-    <t>Esperanza U</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r490344971-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -984,9 +960,6 @@
     <t>I stayed at this location from December to March.  I truly enjoyed my time here.  There is so much to do! Within a quarter of a mile, you have a very nice outdoor mall with the Apple Store, Pottery Barn, Victoria's Secret, etc.  There is a great zoo as well as the beautiful TCU campus within a 5 minute drive of the hotel.I stayed in a suite that had a queen bed and a couch which was a nice size for the 3 months I was at the hotel.  I had my dog with me, the hotel is very dog friendly.  There are some residents that did not pick up after their dogs, just like any other location you will stay at that allows pets.  The grounds were kept up very well though, it was the parking lot area and entrance to the Trinity Trails that you really had to look out for land mines.  There were a few shady residents at the hotel, but the management did a very good job at kicking out any trouble makers.  I had no incidents or issues with any of the residents while I was there.  For the most part, the people who are here are traveling professionals. The staff is so responsive to any concerns and will do everything in their power to provide a pleasant stay!More</t>
   </si>
   <si>
-    <t>Marc A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r490221726-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1011,9 +984,6 @@
     <t>I come often for work. It's quiet, clean, and safe. Shopping and restaurants are within walking distance, and a great zoo and botanical garden are nearby as well as a walking/bike path along the Trinity River behind the property. The staff, especially Sarah, have always been helpful and professional. More</t>
   </si>
   <si>
-    <t>DMcHone</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r488065268-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1041,9 +1011,6 @@
     <t>This hotel is in a nice part of town. Parks, walking and biking paths, the zoo, starbucks. Everything you need. The staff is very friendly and extremely helpful. Great rates too. This is the place I would stay anytime I have business in the area.More</t>
   </si>
   <si>
-    <t>Beckytexasusa</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r486762338-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1059,9 +1026,6 @@
     <t>I don't normally stay at extended stay hotels, but for this business trip my business partner talked me into it. The rooms are modern, but a little cramped. The kitchenette had full sized refrigerator, and was nice. Bathroom door opened into kitchen do with 4 people staying in room, was not always convenient. Sleeper sofa was not comfortable(I was told). No maid service for duration of 4 day stay. Asked for towels and was told person at front desk was by self, so we had to go get them, although one time they did bring. Surprisingly, they offered a Grab and go breakfast was protein bars and muffins. Was unexpected, so was nice. Staff was friendly, although limited. Parking was not very convenient as we got back from job around 11 PM every night. It is in a nice area with many good restaurants around. MoreShow less</t>
   </si>
   <si>
-    <t>May 2017</t>
-  </si>
-  <si>
     <t>00esa, General Manager at Extended Stay America - Fort Worth - Medical Center, responded to this reviewResponded May 23, 2017</t>
   </si>
   <si>
@@ -1071,9 +1035,6 @@
     <t>I don't normally stay at extended stay hotels, but for this business trip my business partner talked me into it. The rooms are modern, but a little cramped. The kitchenette had full sized refrigerator, and was nice. Bathroom door opened into kitchen do with 4 people staying in room, was not always convenient. Sleeper sofa was not comfortable(I was told). No maid service for duration of 4 day stay. Asked for towels and was told person at front desk was by self, so we had to go get them, although one time they did bring. Surprisingly, they offered a Grab and go breakfast was protein bars and muffins. Was unexpected, so was nice. Staff was friendly, although limited. Parking was not very convenient as we got back from job around 11 PM every night. It is in a nice area with many good restaurants around. More</t>
   </si>
   <si>
-    <t>Labdude100</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r485425464-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1098,9 +1059,6 @@
     <t>Stayed here previously and keep coming back because of the helpful staff (Sarah helped me check in on my most recent visit) , superb location (on the river adjacent to top restaurants, retail , shopping and near to the incredible Will Rogers Complex, Fort Worth Botanic Gardens /Cultural District Museums, Medical community hospitals, TCU etc). Rooms are all non smoking and well maintained clean. A+ rating and a true bargain at this price point!More</t>
   </si>
   <si>
-    <t>DAVID S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r483191857-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1125,9 +1083,6 @@
     <t>I stayed in Fort Worth for 5 months for work. After using another hotel ( very bad) I found this place . Fantastic experience there. Rooms are clean the staff is friendly and highly accommodating. They have kitchen units and dishes you can get. For a night or long stay in the area, stay here it's great, in a great area, a safe, secure area. When you book speak to Rachel , or Sarah they are the greatest!! I will stay here again if ever in the area. More</t>
   </si>
   <si>
-    <t>Cynthia R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r483060015-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1152,9 +1107,6 @@
     <t>We have been stay here since October of 2016, but the staff here is so incredibly awesome everyday and anytime we need anything they are always willing to go above and beyond for us. I am very happy that we decided to stay here in instead of somewhere else.  Thank-you so much to the staff at Extended Stay America!! Your the Best!! More</t>
   </si>
   <si>
-    <t>haliramsey</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r482503127-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1179,9 +1131,6 @@
     <t>My husband and I had to stay here for a week due to our 3 month old baby girl under going her first of many open heart surgeries at Cooks. The room was nice and clean. Like a mini apartment. The staff made sure we had everything we needed. The bathroom was clean. Our bed was comfortable. It was quiet every night. Sarah always asked about our baby girl. We will definitely be staying here every time we come back to Cook Children's! Thank you Sarah for your kindness and good vibes for our princess. We will most definitely be staying here again! More</t>
   </si>
   <si>
-    <t>mistyeveritt28</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r472661617-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1230,9 +1179,6 @@
     <t>I was pleasantly surprised upon my arrival at the Extended Stay hotel. The location offer you everything you could desire, shopping  several restaurants , entertainment i.e. the Zoo as well as other attractions. There is no need for a car everything is within walking distance.More</t>
   </si>
   <si>
-    <t>pktoi231</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r470988384-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1251,9 +1197,6 @@
     <t>I stayed in room 105 and it has to be one of the most cramped rooms I have ever stayed in.  I booked my room through a 3rd party site so it was discounted and maybe they assign this room for those who use discounts.First the pros:Seemed to be a good location, close to the zoo and places to eatStaff was niceRoom was clean and the bed was comfortableBathroom and shower was good with good water pressureThe cons:Room was very cramped...there is a chair wedged between the bed and a/c unit. Who want to sit in a chair with air from the unit blowing on you (see pic)Lots of train noise from horns blowing at all times of day and night.  Nothing the property can do about it but it can be distractingRipped towelsBacked to the room being cramped....you need to be a thin model in order to use the fridge.  The door opens the wrong way (you can see in the pics)Wifi is so-soBased on my experience staying in this room I may look at other places firstMore</t>
   </si>
   <si>
-    <t>Yusha N</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r470946142-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1266,9 +1209,6 @@
     <t>The AC is broken, got switched to another room, and then now we have bed bugs. They won't refund our money and the district manager is rude. I would say this place is dirty, and all the workers value is money.</t>
   </si>
   <si>
-    <t>_jhedbergsr</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r469223402-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1293,9 +1233,6 @@
     <t>Great customer service on phone and in person from everyone at the office.  Nice clean rooms and clean laundry area. Perfect location for shopping and food, with the food trucks almost right outside your hotel room.  Shopping just a block away across the street.More</t>
   </si>
   <si>
-    <t>Cmorris31709</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r468614094-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1311,9 +1248,6 @@
     <t xml:space="preserve">My Mom booked through Priceline and surprised my husband and I for our anniversary! Surprised we were when Priceline told us this would be our hotel! We were here for 5 minutes before we left refund and all! Upon doing a walk through as soon as we got there, we found out all that we needed to know! This is basically an all bills paid apartment! Sarah was very nice and understanding! I'm not sure if this was a diabetic syringe or not but regardless, that was something that we should have never been exposed to! Do your research people! </t>
   </si>
   <si>
-    <t>Stephen M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r464909658-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1332,9 +1266,6 @@
     <t>This is an extended stay hotel with a refrigerator, electric stove top, microwave, and some kitchen and dining equipment provided. A walking trail along the Trinity River is behind the hotel and 100 feet away is a food truck park that has several trucks in it several nights a week. On the other side of food truck park facing the river is a yoga studio. A zoo, botanic gardens, and TCU are a couple minutes away. A grocery store, fast food and other restaurants, and a diverse shopping center is a few hundred feet away. The entrance ramp to I-30 for those who must go to Dallas is a mile away and downtown Fort Worth is 5-6 minutes away. It is very hard to beat this location. But I have to say an employee named Sarah has really made my extended stay even easier. She has been helpful each time I have requested assistance.More</t>
   </si>
   <si>
-    <t>vickiebrewer</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r459045846-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1359,9 +1290,6 @@
     <t>The rooms were  nice, but what really made my stay easier was the employees   The employees were wonderful.   They rearranged the cleaning schedule to fit my work schedule. They knew be by name.  Leaving my family for a business trip is hard, having friendly people around willing to listen/talk made me feel more at ease.More</t>
   </si>
   <si>
-    <t>slegerjr</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r458283390-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1407,9 +1335,6 @@
     <t>I have stayed in this hotel since the first week in December 2016 until present (February 2017) because of a work related move from Florida to Texas.  I had never been to the Fort Worth area until this move and I can say, staying in this location of Extended Stay has eased the burden of a cross-country move.  First, the location is amazing.  The Trinity Trails are located directly behind the hotel, so you are able to enjoy the outdoors in a beautiful setting.  Also, the food truck park offers a diverse array of foods within steps of the hotel Wednesday-Sunday.  Speaking of food, within 100 feet is a grocery store, restaurants, and fast food.  Second, the staff has been amazing.  One in particular, Sarah, consistently goes above and beyond to help make your stay the best it can be.  She has been an instrumental part of my smooth transition in the Fort Worth area.  Although I am moving into a house next month, I would stay at this location again and again if the need ever arises. I highly recommend this location.More</t>
   </si>
   <si>
-    <t>Anthony H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r457748871-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1437,9 +1362,6 @@
     <t>Excellent customer service Sarah was awesome help me out find good places to eat ask me if my room up to my standards the room was very satisfied 5 minutes from the zoo 5 minutes  to downtown this is a excellent location also there is a jogging path behind the hotelMore</t>
   </si>
   <si>
-    <t>wildersuzanne</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r457746496-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1497,9 +1419,6 @@
     <t>It was one of the best customer service I have ever had. The staff was very nice and helpful. I couldn't ask for any better. The rooms were nice and beds comfortable.  Great night sleep. Great location and lots to do here.More</t>
   </si>
   <si>
-    <t>Joseph O</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r442745245-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1522,9 +1441,6 @@
   </si>
   <si>
     <t>I went on Thanksgiving Holiday Vacation with family of 4. Apart from little confusion at check-in when I was given a standard room instead of the deluxe room that was been reserved for me. I was told that the deluxe room has been filled up and I should get it the next day. Come the next day,  I was not given the deluxe room. Note was jotted for Mr. Derek the hotel manager for adjustment but In all may 3 night, Mr. Derek never return my call nor make any adjournment on my 3 nights stayed. I rated the service good because the staffs were great like Mr. Steve and Ms. Sandra along with two gentle white staff that works night shift, one front desk attendant and the Janitor whom I don't recall their names. I will stay at this location at other times but I am not please with Mr. Derek the hotel manager that failed to response to various voicemails nor the notes left for him by his various staffs.More</t>
-  </si>
-  <si>
-    <t>yourlostimnot</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r419851307-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
@@ -1547,9 +1463,6 @@
 We arrived at 11:45 pm and the lobby was locked and no one in it to let us in.  I called on their courtesy phone, which it took forever to get a response and was told they would call the night staff who would let us in the lobby and check us into our room.  After 10-15 min, no one had come to the lobby so that I called on their courtesy phone again.  They phone rep said she would call back in 10 min to confirm that someone had contacted the night staff person.  Phone rep called back 15 min later and said that the district manager would call me to make arrangements for a room at another Extended Stay.  By then it was 12:30 am.  At that point I told them I going to find a room at another hotel chain.  Without too much trouble I found a Hilton that was...To visit my daughter at TCU for parents weekend, my wife booked a room at Extended Stay at Fort Worth/TCU – Medical Center several weeks in advance.  She was told that since we would be arriving late, we needed to notify them earlier on the day of arrival that we would still use the room.  My wife spoke on the phone with a representative that morning who confirmed that the room would be held and that someone would be staffing the front desk to let us in.We arrived at 11:45 pm and the lobby was locked and no one in it to let us in.  I called on their courtesy phone, which it took forever to get a response and was told they would call the night staff who would let us in the lobby and check us into our room.  After 10-15 min, no one had come to the lobby so that I called on their courtesy phone again.  They phone rep said she would call back in 10 min to confirm that someone had contacted the night staff person.  Phone rep called back 15 min later and said that the district manager would call me to make arrangements for a room at another Extended Stay.  By then it was 12:30 am.  At that point I told them I going to find a room at another hotel chain.  Without too much trouble I found a Hilton that was 4 – 5 miles away.  When we arrived there was an actual person at the front desk.  My wife and I were quickly checked in.  The room at the Hilton was about $6 more a night but the room was very nice and the service 10x better.  On prior occasions I have stayed at Extended Stay.  The service and rooms were mediocre to average but for the price tolerable.  Never again.  There is a Marriott Courtyard within a quarter mile of the Extended Stay at Fort Worth/Medical Center, which I have been told has excellent service.  That is where we will be staying at our future visits to TCU.  As much as possible, I will avoid staying at Extended Stay for all other future travel as well.More</t>
   </si>
   <si>
-    <t>AvocadoBanana</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r407756832-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1577,9 +1490,6 @@
     <t>Stayed there for 3 nights. Was a little apprehensive initially due to bad reviews and had low expectation. The room wasn't superb but it's not bad either. At least I can see the management putting in effort to decorate the room with nice paintings. The toilet is clean however there's a perpetual smoke smell in the toilet that couldn't be removed even with the fan extractor on. The towels also had stains on it. The receptionists were friendly but do take note that you can't deposit your luggage with the reception if you reach before the check in time. Food is nearby, canes and ol south pancake in front and another two food joints behind. University village is across the road. Overall it's a good stay with the price I paid.More</t>
   </si>
   <si>
-    <t>Cary V</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r401092037-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1604,9 +1514,6 @@
     <t>This was a last minute stay because we were in town for my sons surgery and needed a place quick. The room looked nice, but it was extremely cramped. The room we had smelled like smoke, and the breakfast advertised was not what they had. Instead of the apple and oranges you'd normally find at a place that offers breakfast all they had was granola bars and coffee. More</t>
   </si>
   <si>
-    <t>Bill G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r370224602-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1634,9 +1541,6 @@
     <t>The location had great staff, quick friendly service.  The room had everything I needed. Parking was more than ample.  Great location relative to museums and art galleries.  I will definitely stay there again.More</t>
   </si>
   <si>
-    <t>statemployee</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r357306918-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1664,9 +1568,6 @@
     <t>This is a real mixed bag. The staff is nice. It's located near a food truck park and near a lot of wonderful Fort Worth places to see. However, the rooms are tiny. The bed sheets are so thin you can see the (horrible) mattress beneath. There was hair in the bathtub. I kept my shoes on until I went to bed because the carpet looked gross. The lighting was very dim even with all the lights on, which may have been a purposeful tactic to keep the grossness hidden. Looking back, I probably should've complained, but I was on my company's dime and was only there a night. People should know: it looks fine from the outside, staff is fine, horrible accommodations.More</t>
   </si>
   <si>
-    <t>iPhiLgreat</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r353738055-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1691,9 +1592,6 @@
     <t>Not a whole lot to say except it got the job done for a short weekend in fort worth. Basic necessities, bed was comfortable enough and there was free wifi and showtime. The price was affordable and there weren't really any great expectations with what we paid for.More</t>
   </si>
   <si>
-    <t>P7169QLbenjamins</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r344589763-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1721,9 +1619,6 @@
     <t>I have stayed here three times in the past four years and for extended periods of time due to work assignments. This last time tho hit it out of the park. Staff is friendly and helpful. the cleaning staff is A+. The kitchen is perfect for saving money and for helping me from eating out all the time. The location couldnt be better, being close to the highway and toll road as well as night life. The food truck park that is next door right off the Trinity river is a nice amenity as well as the jogging path behind the hotel that will take you into the park. Cant wait to come back again.More</t>
   </si>
   <si>
-    <t>GALLAWAYTX</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r340976312-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1748,9 +1643,6 @@
     <t>We have never stayed at an Extended Stay before and were really surprised! We found the property (outside) to be clean and well-manicured - as well as many 3-4 star hotels/motels. The room was small compared to the larger chains, only a full-size bed, but there was a great bathroom, kitchen area with full size (clean) fridge, stove and microwave.  The most important thing was the BED was very comfortable and the pillows were as well. It is within walking distance of several good restaurants (Chili's, IHOP, Cain's) and has a FRESH Market 100 yards away.  Exxon station with a convenience store if less than 100 yards away, and it is 2 minutes north of I-30, and traffic noise is no problem. There is no elevator and rooms on the north side would probably be quieter, although both sides are OK in that respect.We absolutely plan to stay there again when we are in the area.More</t>
   </si>
   <si>
-    <t>LNTexas</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r325571587-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1772,9 +1664,6 @@
     <t>I sat on hold, in my car, trying to verify for late arrival with the Fort Worth location.  I had to call the 800 number twice instead of the actual hotel and somehow they got a live person to verify.  I checked in after 10:30 p.m. and the room had trash, used towels on the floor and someone had been on the bed.  The second room was fine.  You can hear everything that's said anywhere near outside your door, coming up the stairs, etc.  The bolt lock didn't work.  There's no coffee maker (without an extra charge) and no coffee.  Too basic and small for the money.  Who doesn't have coffee in a hotel?More</t>
   </si>
   <si>
-    <t>Tomasz L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r294825194-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1802,9 +1691,6 @@
     <t>I liked the place. It has very good location near museum district. Lot of restaurants and shops nearby. Nice, clean room with comfortable bed. AC running smoothly what is crucial in summer here.  Staff was very helpful. Wi-Fi worked well even without paying additional fees.More</t>
   </si>
   <si>
-    <t>Fordman352</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r293767244-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1827,9 +1713,6 @@
   </si>
   <si>
     <t>This was my first experience with Extended Stay America chain. I am use to full housekeeping services, but was OK with not having as I was in town alone and for only 4 nights. The young man that checked me in was very professional and friendly. I requested a coffee maker and he gave me a coffee pack for each morning I was there then brought me a coffee maker to my room within 1/2 hour of checking in. Every staff person I encountered at the front desk was very friendly and helpful. The price was good as well. The A/C worked well which was a blessing in the TX heat! You have a good staff here. Keep up the good work.More</t>
-  </si>
-  <si>
-    <t>Reilly1104</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d217719-r262361381-Extended_Stay_America_Fort_Worth_Medical_Center-Fort_Worth_Texas.html</t>
@@ -2361,56 +2244,52 @@
       <c r="A2" t="n">
         <v>32595</v>
       </c>
-      <c r="B2" t="n">
-        <v>11998</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
-      </c>
-      <c r="L2" t="s">
-        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="O2" t="s">
-        <v>54</v>
-      </c>
       <c r="P2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q2" t="n">
         <v>4</v>
       </c>
+      <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
+      <c r="S2" t="n">
+        <v>3</v>
+      </c>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
         <v>5</v>
@@ -2419,63 +2298,63 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
         <v>55</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>56</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>32595</v>
       </c>
-      <c r="B3" t="n">
-        <v>136228</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
         <v>59</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>60</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>61</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>62</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>63</v>
       </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O3" t="s">
-        <v>54</v>
-      </c>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
@@ -2486,128 +2365,126 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
         <v>65</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>66</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>32595</v>
       </c>
-      <c r="B4" t="n">
-        <v>44865</v>
-      </c>
-      <c r="C4" t="s">
-        <v>68</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
         <v>69</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>70</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>71</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
         <v>72</v>
       </c>
-      <c r="L4" t="s">
-        <v>73</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>74</v>
-      </c>
       <c r="O4" t="s">
-        <v>75</v>
-      </c>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>32595</v>
       </c>
-      <c r="B5" t="n">
-        <v>18625</v>
-      </c>
-      <c r="C5" t="s">
-        <v>79</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" t="s">
         <v>80</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
         <v>81</v>
       </c>
-      <c r="J5" t="s">
-        <v>82</v>
-      </c>
-      <c r="K5" t="s">
-        <v>83</v>
-      </c>
-      <c r="L5" t="s">
-        <v>84</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>85</v>
-      </c>
       <c r="O5" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="P5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q5" t="n">
         <v>4</v>
@@ -2622,60 +2499,56 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="X5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="Y5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>32595</v>
       </c>
-      <c r="B6" t="n">
-        <v>136229</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
         <v>90</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="O6" t="s">
         <v>91</v>
-      </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
-        <v>92</v>
-      </c>
-      <c r="J6" t="s">
-        <v>82</v>
-      </c>
-      <c r="K6" t="s">
-        <v>93</v>
-      </c>
-      <c r="L6" t="s">
-        <v>94</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>74</v>
-      </c>
-      <c r="O6" t="s">
-        <v>54</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2687,418 +2560,396 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="X6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="Y6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>32595</v>
       </c>
-      <c r="B7" t="n">
-        <v>136230</v>
-      </c>
-      <c r="C7" t="s">
-        <v>96</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>96</v>
+      </c>
+      <c r="J7" t="s">
         <v>97</v>
       </c>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>98</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>99</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>100</v>
       </c>
-      <c r="L7" t="s">
-        <v>101</v>
-      </c>
-      <c r="M7" t="n">
-        <v>4</v>
-      </c>
-      <c r="N7" t="s">
-        <v>102</v>
-      </c>
       <c r="O7" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
+        <v>101</v>
+      </c>
+      <c r="X7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y7" t="s">
         <v>103</v>
-      </c>
-      <c r="X7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>32595</v>
       </c>
-      <c r="B8" t="n">
-        <v>1367</v>
-      </c>
-      <c r="C8" t="s">
-        <v>106</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>105</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" t="s">
+        <v>106</v>
+      </c>
+      <c r="L8" t="s">
         <v>107</v>
       </c>
-      <c r="G8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>90</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>64</v>
+      </c>
+      <c r="X8" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y8" t="s">
         <v>108</v>
-      </c>
-      <c r="J8" t="s">
-        <v>109</v>
-      </c>
-      <c r="K8" t="s">
-        <v>110</v>
-      </c>
-      <c r="L8" t="s">
-        <v>111</v>
-      </c>
-      <c r="M8" t="n">
-        <v>2</v>
-      </c>
-      <c r="N8" t="s">
-        <v>102</v>
-      </c>
-      <c r="O8" t="s">
-        <v>75</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" t="n">
-        <v>4</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2</v>
-      </c>
-      <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>4</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="s">
-        <v>112</v>
-      </c>
-      <c r="X8" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>32595</v>
       </c>
-      <c r="B9" t="n">
-        <v>136231</v>
-      </c>
-      <c r="C9" t="s">
-        <v>115</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K9" t="s">
+        <v>112</v>
+      </c>
+      <c r="L9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>114</v>
+      </c>
+      <c r="O9" t="s">
+        <v>91</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>115</v>
+      </c>
+      <c r="X9" t="s">
         <v>116</v>
       </c>
-      <c r="G9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="Y9" t="s">
         <v>117</v>
-      </c>
-      <c r="J9" t="s">
-        <v>118</v>
-      </c>
-      <c r="K9" t="s">
-        <v>119</v>
-      </c>
-      <c r="L9" t="s">
-        <v>120</v>
-      </c>
-      <c r="M9" t="n">
-        <v>3</v>
-      </c>
-      <c r="N9" t="s">
-        <v>85</v>
-      </c>
-      <c r="O9" t="s">
-        <v>86</v>
-      </c>
-      <c r="P9" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>4</v>
-      </c>
-      <c r="R9" t="n">
-        <v>5</v>
-      </c>
-      <c r="S9" t="n">
-        <v>4</v>
-      </c>
-      <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>4</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="s">
-        <v>121</v>
-      </c>
-      <c r="X9" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>32595</v>
       </c>
-      <c r="B10" t="n">
-        <v>136232</v>
-      </c>
-      <c r="C10" t="s">
-        <v>124</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="J10" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="K10" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="L10" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="O10" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="P10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="X10" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="Y10" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>32595</v>
       </c>
-      <c r="B11" t="n">
-        <v>136233</v>
-      </c>
-      <c r="C11" t="s">
-        <v>133</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="J11" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="K11" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="L11" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
-      </c>
-      <c r="N11" t="s"/>
-      <c r="O11" t="s"/>
-      <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>62</v>
+      </c>
+      <c r="O11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="X11" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="Y11" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>32595</v>
       </c>
-      <c r="B12" t="n">
-        <v>136234</v>
-      </c>
-      <c r="C12" t="s">
-        <v>142</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="J12" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="K12" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="L12" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="O12" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
       </c>
-      <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
         <v>5</v>
@@ -3107,336 +2958,316 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="X12" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="Y12" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>32595</v>
       </c>
-      <c r="B13" t="n">
-        <v>136235</v>
-      </c>
-      <c r="C13" t="s">
-        <v>152</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="J13" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="K13" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="L13" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
-      <c r="N13" t="s">
-        <v>158</v>
-      </c>
-      <c r="O13" t="s">
-        <v>54</v>
-      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
-      <c r="R13" t="n">
-        <v>5</v>
-      </c>
-      <c r="S13" t="n">
-        <v>4</v>
-      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="X13" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="Y13" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>32595</v>
       </c>
-      <c r="B14" t="n">
-        <v>136236</v>
-      </c>
-      <c r="C14" t="s">
-        <v>162</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="J14" t="s">
+        <v>152</v>
+      </c>
+      <c r="K14" t="s">
+        <v>153</v>
+      </c>
+      <c r="L14" t="s">
+        <v>154</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
         <v>155</v>
       </c>
-      <c r="K14" t="s">
-        <v>165</v>
-      </c>
-      <c r="L14" t="s">
-        <v>166</v>
-      </c>
-      <c r="M14" t="n">
-        <v>3</v>
-      </c>
-      <c r="N14" t="s">
-        <v>158</v>
-      </c>
       <c r="O14" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="P14" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>3</v>
-      </c>
-      <c r="R14" t="n">
-        <v>4</v>
-      </c>
-      <c r="S14" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="X14" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="Y14" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>32595</v>
       </c>
-      <c r="B15" t="n">
-        <v>136237</v>
-      </c>
-      <c r="C15" t="s">
-        <v>168</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="J15" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="K15" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="L15" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="O15" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
-      <c r="S15" t="s"/>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="X15" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="Y15" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>32595</v>
       </c>
-      <c r="B16" t="n">
-        <v>136238</v>
-      </c>
-      <c r="C16" t="s">
-        <v>177</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="J16" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="K16" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="L16" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="O16" t="s">
-        <v>54</v>
-      </c>
-      <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="X16" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="Y16" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>32595</v>
       </c>
-      <c r="B17" t="n">
-        <v>136239</v>
-      </c>
-      <c r="C17" t="s">
-        <v>186</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="J17" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="K17" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="L17" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="O17" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3448,213 +3279,187 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="X17" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="Y17" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>32595</v>
       </c>
-      <c r="B18" t="n">
-        <v>45030</v>
-      </c>
-      <c r="C18" t="s">
-        <v>196</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="J18" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="K18" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="L18" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>202</v>
+        <v>164</v>
       </c>
       <c r="O18" t="s">
-        <v>203</v>
+        <v>53</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
-      <c r="R18" t="n">
-        <v>5</v>
-      </c>
-      <c r="S18" t="n">
-        <v>4</v>
-      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>5</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="X18" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="Y18" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>32595</v>
       </c>
-      <c r="B19" t="n">
-        <v>38399</v>
-      </c>
-      <c r="C19" t="s">
-        <v>207</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="J19" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="K19" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="L19" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="O19" t="s">
-        <v>75</v>
-      </c>
-      <c r="P19" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>3</v>
-      </c>
-      <c r="R19" t="n">
-        <v>4</v>
-      </c>
-      <c r="S19" t="n">
-        <v>3</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>3</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="X19" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="Y19" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>32595</v>
       </c>
-      <c r="B20" t="n">
-        <v>136227</v>
-      </c>
-      <c r="C20" t="s">
-        <v>58</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="J20" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="K20" t="s">
-        <v>62</v>
+        <v>201</v>
       </c>
       <c r="L20" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="O20" t="s">
-        <v>86</v>
+        <v>204</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
       <c r="R20" t="n">
         <v>5</v>
       </c>
-      <c r="S20" t="s"/>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
         <v>5</v>
@@ -3663,148 +3468,134 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="X20" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="Y20" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>32595</v>
       </c>
-      <c r="B21" t="n">
-        <v>136240</v>
-      </c>
-      <c r="C21" t="s">
-        <v>223</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="J21" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="K21" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="L21" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O21" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="X21" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="Y21" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>32595</v>
       </c>
-      <c r="B22" t="n">
-        <v>136241</v>
-      </c>
-      <c r="C22" t="s">
-        <v>232</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="J22" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="K22" t="s">
-        <v>236</v>
+        <v>98</v>
       </c>
       <c r="L22" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>202</v>
+        <v>155</v>
       </c>
       <c r="O22" t="s">
-        <v>75</v>
-      </c>
-      <c r="P22" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>5</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
       <c r="R22" t="n">
         <v>5</v>
       </c>
-      <c r="S22" t="n">
-        <v>5</v>
-      </c>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
         <v>5</v>
@@ -3813,138 +3604,130 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="X22" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="Y22" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>32595</v>
       </c>
-      <c r="B23" t="n">
-        <v>136242</v>
-      </c>
-      <c r="C23" t="s">
-        <v>241</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="J23" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="K23" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="L23" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O23" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="P23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="X23" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="Y23" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>32595</v>
       </c>
-      <c r="B24" t="n">
-        <v>136243</v>
-      </c>
-      <c r="C24" t="s">
-        <v>250</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="J24" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="K24" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="L24" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="M24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>256</v>
+        <v>203</v>
       </c>
       <c r="O24" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="P24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q24" t="n">
         <v>5</v>
@@ -3963,264 +3746,273 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="X24" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="Y24" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>32595</v>
       </c>
-      <c r="B25" t="n">
-        <v>136244</v>
-      </c>
-      <c r="C25" t="s">
-        <v>260</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="J25" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="K25" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="L25" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="M25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>256</v>
+        <v>203</v>
       </c>
       <c r="O25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R25" t="n">
         <v>4</v>
       </c>
       <c r="S25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="X25" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="Y25" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>32595</v>
       </c>
-      <c r="B26" t="n">
-        <v>136245</v>
-      </c>
-      <c r="C26" t="s">
-        <v>269</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="J26" t="s">
-        <v>272</v>
-      </c>
-      <c r="K26" t="s"/>
-      <c r="L26" t="s"/>
-      <c r="M26" t="s"/>
-      <c r="N26" t="s"/>
-      <c r="O26" t="s"/>
-      <c r="P26" t="s"/>
-      <c r="Q26" t="s"/>
-      <c r="R26" t="s"/>
-      <c r="S26" t="s"/>
+        <v>249</v>
+      </c>
+      <c r="K26" t="s">
+        <v>250</v>
+      </c>
+      <c r="L26" t="s">
+        <v>251</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>252</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
       <c r="T26" t="s"/>
-      <c r="U26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
       <c r="V26" t="n">
         <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>253</v>
+      </c>
+      <c r="X26" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>32595</v>
       </c>
-      <c r="B27" t="n">
-        <v>136246</v>
-      </c>
-      <c r="C27" t="s">
-        <v>273</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="J27" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="K27" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="L27" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="O27" t="s">
-        <v>203</v>
+        <v>53</v>
       </c>
       <c r="P27" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q27" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2</v>
+      </c>
       <c r="R27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="X27" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="Y27" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>32595</v>
       </c>
-      <c r="B28" t="n">
-        <v>4235</v>
-      </c>
-      <c r="C28" t="s">
-        <v>282</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="J28" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="K28" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="L28" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="O28" t="s">
-        <v>86</v>
-      </c>
-      <c r="P28" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>5</v>
-      </c>
-      <c r="R28" t="n">
-        <v>5</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
       <c r="S28" t="n">
         <v>5</v>
       </c>
@@ -4232,355 +4024,347 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="X28" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="Y28" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>32595</v>
       </c>
-      <c r="B29" t="n">
-        <v>136247</v>
-      </c>
-      <c r="C29" t="s">
-        <v>291</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="J29" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="K29" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="L29" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="M29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="O29" t="s">
-        <v>54</v>
+        <v>204</v>
       </c>
       <c r="P29" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q29" t="s"/>
       <c r="R29" t="n">
         <v>5</v>
       </c>
       <c r="S29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="X29" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="Y29" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>32595</v>
       </c>
-      <c r="B30" t="n">
-        <v>136248</v>
-      </c>
-      <c r="C30" t="s">
-        <v>300</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="J30" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="K30" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="L30" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="M30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="O30" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
       </c>
       <c r="Q30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R30" t="n">
         <v>5</v>
       </c>
       <c r="S30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="X30" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="Y30" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>32595</v>
       </c>
-      <c r="B31" t="n">
-        <v>136249</v>
-      </c>
-      <c r="C31" t="s">
-        <v>308</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="J31" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="K31" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="L31" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="M31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>314</v>
+        <v>252</v>
       </c>
       <c r="O31" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="P31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q31" t="n">
-        <v>4</v>
-      </c>
-      <c r="R31" t="s"/>
-      <c r="S31" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2</v>
+      </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="X31" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="Y31" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>32595</v>
       </c>
-      <c r="B32" t="n">
-        <v>109704</v>
-      </c>
-      <c r="C32" t="s">
-        <v>318</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="J32" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="K32" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="L32" t="s">
-        <v>323</v>
+        <v>297</v>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="O32" t="s">
-        <v>75</v>
-      </c>
-      <c r="P32" t="s"/>
-      <c r="Q32" t="s"/>
-      <c r="R32" t="s"/>
-      <c r="S32" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3</v>
+      </c>
       <c r="T32" t="s"/>
-      <c r="U32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>324</v>
+        <v>298</v>
       </c>
       <c r="X32" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c r="Y32" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>32595</v>
       </c>
-      <c r="B33" t="n">
-        <v>136250</v>
-      </c>
-      <c r="C33" t="s">
-        <v>327</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>328</v>
+        <v>301</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>329</v>
+        <v>302</v>
       </c>
       <c r="J33" t="s">
-        <v>330</v>
+        <v>303</v>
       </c>
       <c r="K33" t="s">
-        <v>331</v>
+        <v>304</v>
       </c>
       <c r="L33" t="s">
-        <v>332</v>
+        <v>305</v>
       </c>
       <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>306</v>
+      </c>
+      <c r="O33" t="s">
+        <v>91</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
         <v>4</v>
       </c>
-      <c r="N33" t="s">
-        <v>333</v>
-      </c>
-      <c r="O33" t="s">
-        <v>75</v>
-      </c>
-      <c r="P33" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q33" t="s"/>
       <c r="R33" t="s"/>
-      <c r="S33" t="n">
-        <v>5</v>
-      </c>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
         <v>5</v>
@@ -4589,60 +4373,56 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="X33" t="s">
-        <v>335</v>
+        <v>308</v>
       </c>
       <c r="Y33" t="s">
-        <v>336</v>
+        <v>309</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>32595</v>
       </c>
-      <c r="B34" t="n">
-        <v>136251</v>
-      </c>
-      <c r="C34" t="s">
-        <v>337</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
       <c r="J34" t="s">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="K34" t="s">
-        <v>341</v>
+        <v>313</v>
       </c>
       <c r="L34" t="s">
-        <v>342</v>
+        <v>314</v>
       </c>
       <c r="M34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>343</v>
+        <v>252</v>
       </c>
       <c r="O34" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4654,60 +4434,56 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>344</v>
+        <v>315</v>
       </c>
       <c r="X34" t="s">
-        <v>345</v>
+        <v>316</v>
       </c>
       <c r="Y34" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>32595</v>
       </c>
-      <c r="B35" t="n">
-        <v>136252</v>
-      </c>
-      <c r="C35" t="s">
-        <v>347</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>348</v>
+        <v>318</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>349</v>
+        <v>319</v>
       </c>
       <c r="J35" t="s">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="K35" t="s">
-        <v>351</v>
+        <v>321</v>
       </c>
       <c r="L35" t="s">
-        <v>352</v>
+        <v>322</v>
       </c>
       <c r="M35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
       <c r="O35" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -4725,60 +4501,56 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>353</v>
+        <v>324</v>
       </c>
       <c r="X35" t="s">
-        <v>354</v>
+        <v>325</v>
       </c>
       <c r="Y35" t="s">
-        <v>355</v>
+        <v>326</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>32595</v>
       </c>
-      <c r="B36" t="n">
-        <v>136253</v>
-      </c>
-      <c r="C36" t="s">
-        <v>356</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>357</v>
+        <v>327</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>358</v>
+        <v>328</v>
       </c>
       <c r="J36" t="s">
-        <v>359</v>
+        <v>329</v>
       </c>
       <c r="K36" t="s">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="L36" t="s">
-        <v>361</v>
+        <v>331</v>
       </c>
       <c r="M36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>314</v>
+        <v>269</v>
       </c>
       <c r="O36" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4790,125 +4562,123 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>362</v>
+        <v>332</v>
       </c>
       <c r="X36" t="s">
-        <v>363</v>
+        <v>333</v>
       </c>
       <c r="Y36" t="s">
-        <v>364</v>
+        <v>334</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>32595</v>
       </c>
-      <c r="B37" t="n">
-        <v>11440</v>
-      </c>
-      <c r="C37" t="s">
-        <v>365</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>367</v>
+        <v>336</v>
       </c>
       <c r="J37" t="s">
-        <v>368</v>
+        <v>337</v>
       </c>
       <c r="K37" t="s">
-        <v>369</v>
+        <v>338</v>
       </c>
       <c r="L37" t="s">
-        <v>370</v>
+        <v>339</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>343</v>
+        <v>269</v>
       </c>
       <c r="O37" t="s">
-        <v>203</v>
-      </c>
-      <c r="P37" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
       <c r="Q37" t="s"/>
       <c r="R37" t="s"/>
-      <c r="S37" t="s"/>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
       <c r="T37" t="s"/>
-      <c r="U37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>371</v>
+        <v>340</v>
       </c>
       <c r="X37" t="s">
-        <v>372</v>
+        <v>341</v>
       </c>
       <c r="Y37" t="s">
-        <v>373</v>
+        <v>342</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>32595</v>
       </c>
-      <c r="B38" t="n">
-        <v>136254</v>
-      </c>
-      <c r="C38" t="s">
-        <v>374</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>375</v>
+        <v>343</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
       <c r="J38" t="s">
-        <v>377</v>
+        <v>345</v>
       </c>
       <c r="K38" t="s">
-        <v>93</v>
+        <v>346</v>
       </c>
       <c r="L38" t="s">
-        <v>378</v>
+        <v>347</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>379</v>
+        <v>306</v>
       </c>
       <c r="O38" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4920,665 +4690,623 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>380</v>
+        <v>348</v>
       </c>
       <c r="X38" t="s">
-        <v>381</v>
+        <v>349</v>
       </c>
       <c r="Y38" t="s">
-        <v>382</v>
+        <v>350</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>32595</v>
       </c>
-      <c r="B39" t="n">
-        <v>136255</v>
-      </c>
-      <c r="C39" t="s">
-        <v>383</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>384</v>
+        <v>351</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>385</v>
+        <v>352</v>
       </c>
       <c r="J39" t="s">
-        <v>386</v>
+        <v>353</v>
       </c>
       <c r="K39" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="L39" t="s">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="M39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>379</v>
+        <v>269</v>
       </c>
       <c r="O39" t="s">
-        <v>54</v>
+        <v>204</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
       <c r="R39" t="s"/>
-      <c r="S39" t="n">
-        <v>5</v>
-      </c>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="n">
-        <v>5</v>
-      </c>
+      <c r="U39" t="s"/>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>389</v>
+        <v>356</v>
       </c>
       <c r="X39" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="Y39" t="s">
-        <v>390</v>
+        <v>358</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>32595</v>
       </c>
-      <c r="B40" t="n">
-        <v>136233</v>
-      </c>
-      <c r="C40" t="s">
-        <v>142</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>391</v>
+        <v>359</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>392</v>
+        <v>360</v>
       </c>
       <c r="J40" t="s">
-        <v>393</v>
+        <v>361</v>
       </c>
       <c r="K40" t="s">
-        <v>394</v>
+        <v>106</v>
       </c>
       <c r="L40" t="s">
-        <v>395</v>
+        <v>362</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>396</v>
+        <v>363</v>
       </c>
       <c r="O40" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="P40" t="s"/>
-      <c r="Q40" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q40" t="s"/>
       <c r="R40" t="s"/>
       <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="n">
-        <v>4</v>
-      </c>
+      <c r="U40" t="s"/>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>397</v>
+        <v>364</v>
       </c>
       <c r="X40" t="s">
-        <v>398</v>
+        <v>365</v>
       </c>
       <c r="Y40" t="s">
-        <v>399</v>
+        <v>366</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>32595</v>
       </c>
-      <c r="B41" t="n">
-        <v>136256</v>
-      </c>
-      <c r="C41" t="s">
-        <v>400</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>401</v>
+        <v>367</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>402</v>
+        <v>368</v>
       </c>
       <c r="J41" t="s">
-        <v>403</v>
+        <v>369</v>
       </c>
       <c r="K41" t="s">
-        <v>404</v>
+        <v>370</v>
       </c>
       <c r="L41" t="s">
-        <v>405</v>
+        <v>371</v>
       </c>
       <c r="M41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>314</v>
+        <v>363</v>
       </c>
       <c r="O41" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
-      <c r="R41" t="n">
-        <v>3</v>
-      </c>
-      <c r="S41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
+      <c r="W41" t="s">
+        <v>372</v>
+      </c>
+      <c r="X41" t="s">
+        <v>357</v>
+      </c>
       <c r="Y41" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>32595</v>
       </c>
-      <c r="B42" t="n">
-        <v>136257</v>
-      </c>
-      <c r="C42" t="s">
-        <v>407</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>408</v>
+        <v>374</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>409</v>
+        <v>375</v>
       </c>
       <c r="J42" t="s">
-        <v>403</v>
+        <v>376</v>
       </c>
       <c r="K42" t="s">
-        <v>410</v>
+        <v>377</v>
       </c>
       <c r="L42" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="M42" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>314</v>
+        <v>379</v>
       </c>
       <c r="O42" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="P42" t="s"/>
-      <c r="Q42" t="s"/>
-      <c r="R42" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="s"/>
       <c r="S42" t="s"/>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
+      <c r="W42" t="s">
+        <v>380</v>
+      </c>
+      <c r="X42" t="s">
+        <v>381</v>
+      </c>
       <c r="Y42" t="s">
-        <v>411</v>
+        <v>382</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>32595</v>
       </c>
-      <c r="B43" t="n">
-        <v>136258</v>
-      </c>
-      <c r="C43" t="s">
-        <v>412</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>413</v>
+        <v>383</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>414</v>
+        <v>384</v>
       </c>
       <c r="J43" t="s">
-        <v>415</v>
+        <v>385</v>
       </c>
       <c r="K43" t="s">
-        <v>416</v>
+        <v>386</v>
       </c>
       <c r="L43" t="s">
-        <v>417</v>
+        <v>387</v>
       </c>
       <c r="M43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N43" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="O43" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
       <c r="R43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S43" t="s"/>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s">
-        <v>418</v>
-      </c>
-      <c r="X43" t="s">
-        <v>419</v>
-      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>420</v>
+        <v>388</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>32595</v>
       </c>
-      <c r="B44" t="n">
-        <v>136259</v>
-      </c>
-      <c r="C44" t="s">
-        <v>421</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>422</v>
+        <v>389</v>
       </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>423</v>
+        <v>390</v>
       </c>
       <c r="J44" t="s">
-        <v>424</v>
+        <v>385</v>
       </c>
       <c r="K44" t="s">
-        <v>425</v>
+        <v>391</v>
       </c>
       <c r="L44" t="s">
-        <v>426</v>
+        <v>392</v>
       </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="O44" t="s">
-        <v>203</v>
+        <v>91</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
-      <c r="R44" t="s"/>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
       <c r="S44" t="s"/>
       <c r="T44" t="s"/>
-      <c r="U44" t="s"/>
+      <c r="U44" t="n">
+        <v>1</v>
+      </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>426</v>
+        <v>392</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>32595</v>
       </c>
-      <c r="B45" t="n">
-        <v>7344</v>
-      </c>
-      <c r="C45" t="s">
-        <v>427</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>428</v>
+        <v>393</v>
       </c>
       <c r="G45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>429</v>
+        <v>394</v>
       </c>
       <c r="J45" t="s">
-        <v>430</v>
+        <v>395</v>
       </c>
       <c r="K45" t="s">
-        <v>431</v>
+        <v>396</v>
       </c>
       <c r="L45" t="s">
-        <v>432</v>
+        <v>397</v>
       </c>
       <c r="M45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>333</v>
+        <v>306</v>
       </c>
       <c r="O45" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
       <c r="R45" t="n">
         <v>5</v>
       </c>
-      <c r="S45" t="n">
-        <v>4</v>
-      </c>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
+      <c r="W45" t="s">
+        <v>398</v>
+      </c>
+      <c r="X45" t="s">
+        <v>399</v>
+      </c>
       <c r="Y45" t="s">
-        <v>433</v>
+        <v>400</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>32595</v>
       </c>
-      <c r="B46" t="n">
-        <v>136260</v>
-      </c>
-      <c r="C46" t="s">
-        <v>434</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>435</v>
+        <v>401</v>
       </c>
       <c r="G46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>436</v>
+        <v>402</v>
       </c>
       <c r="J46" t="s">
-        <v>437</v>
+        <v>403</v>
       </c>
       <c r="K46" t="s">
-        <v>438</v>
+        <v>404</v>
       </c>
       <c r="L46" t="s">
-        <v>439</v>
+        <v>405</v>
       </c>
       <c r="M46" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>148</v>
+        <v>306</v>
       </c>
       <c r="O46" t="s">
-        <v>75</v>
-      </c>
-      <c r="P46" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>2</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
       <c r="R46" t="s"/>
       <c r="S46" t="s"/>
       <c r="T46" t="s"/>
-      <c r="U46" t="n">
-        <v>5</v>
-      </c>
+      <c r="U46" t="s"/>
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s">
-        <v>440</v>
-      </c>
-      <c r="X46" t="s">
-        <v>441</v>
-      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>442</v>
+        <v>405</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>32595</v>
       </c>
-      <c r="B47" t="n">
-        <v>136261</v>
-      </c>
-      <c r="C47" t="s">
-        <v>443</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>444</v>
+        <v>406</v>
       </c>
       <c r="G47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>445</v>
+        <v>407</v>
       </c>
       <c r="J47" t="s">
-        <v>446</v>
+        <v>408</v>
       </c>
       <c r="K47" t="s">
-        <v>447</v>
+        <v>409</v>
       </c>
       <c r="L47" t="s">
-        <v>448</v>
+        <v>410</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="O47" t="s">
-        <v>449</v>
+        <v>91</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
-      <c r="R47" t="s"/>
-      <c r="S47" t="s"/>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
       <c r="T47" t="s"/>
-      <c r="U47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>448</v>
+        <v>411</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>32595</v>
       </c>
-      <c r="B48" t="n">
-        <v>136248</v>
-      </c>
-      <c r="C48" t="s">
-        <v>308</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>450</v>
+        <v>412</v>
       </c>
       <c r="G48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>451</v>
+        <v>413</v>
       </c>
       <c r="J48" t="s">
-        <v>452</v>
+        <v>414</v>
       </c>
       <c r="K48" t="s">
-        <v>453</v>
+        <v>415</v>
       </c>
       <c r="L48" t="s">
-        <v>454</v>
+        <v>416</v>
       </c>
       <c r="M48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>455</v>
+        <v>155</v>
       </c>
       <c r="O48" t="s">
-        <v>75</v>
-      </c>
-      <c r="P48" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
       <c r="Q48" t="n">
-        <v>4</v>
-      </c>
-      <c r="R48" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R48" t="s"/>
       <c r="S48" t="s"/>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
@@ -5588,60 +5316,56 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>456</v>
+        <v>417</v>
       </c>
       <c r="X48" t="s">
-        <v>457</v>
+        <v>418</v>
       </c>
       <c r="Y48" t="s">
-        <v>458</v>
+        <v>419</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>32595</v>
       </c>
-      <c r="B49" t="n">
-        <v>674</v>
-      </c>
-      <c r="C49" t="s">
-        <v>459</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>460</v>
+        <v>420</v>
       </c>
       <c r="G49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>461</v>
+        <v>421</v>
       </c>
       <c r="J49" t="s">
-        <v>462</v>
+        <v>422</v>
       </c>
       <c r="K49" t="s">
-        <v>463</v>
+        <v>423</v>
       </c>
       <c r="L49" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="M49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>465</v>
+        <v>323</v>
       </c>
       <c r="O49" t="s">
-        <v>75</v>
+        <v>425</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -5652,64 +5376,58 @@
       <c r="V49" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="s">
-        <v>466</v>
-      </c>
-      <c r="X49" t="s">
-        <v>467</v>
-      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>468</v>
+        <v>424</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>32595</v>
       </c>
-      <c r="B50" t="n">
-        <v>136262</v>
-      </c>
-      <c r="C50" t="s">
-        <v>469</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>470</v>
+        <v>426</v>
       </c>
       <c r="G50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>471</v>
+        <v>427</v>
       </c>
       <c r="J50" t="s">
-        <v>462</v>
+        <v>428</v>
       </c>
       <c r="K50" t="s">
-        <v>472</v>
+        <v>429</v>
       </c>
       <c r="L50" t="s">
-        <v>473</v>
+        <v>430</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>148</v>
+        <v>431</v>
       </c>
       <c r="O50" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="P50" t="s"/>
-      <c r="Q50" t="s"/>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
       <c r="R50" t="n">
         <v>5</v>
       </c>
@@ -5722,60 +5440,56 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>456</v>
+        <v>432</v>
       </c>
       <c r="X50" t="s">
-        <v>457</v>
+        <v>433</v>
       </c>
       <c r="Y50" t="s">
-        <v>474</v>
+        <v>434</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>32595</v>
       </c>
-      <c r="B51" t="n">
-        <v>136252</v>
-      </c>
-      <c r="C51" t="s">
-        <v>356</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>475</v>
+        <v>435</v>
       </c>
       <c r="G51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>476</v>
+        <v>436</v>
       </c>
       <c r="J51" t="s">
-        <v>477</v>
+        <v>437</v>
       </c>
       <c r="K51" t="s">
-        <v>478</v>
+        <v>438</v>
       </c>
       <c r="L51" t="s">
-        <v>479</v>
+        <v>439</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>148</v>
+        <v>440</v>
       </c>
       <c r="O51" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -5787,125 +5501,121 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>480</v>
+        <v>441</v>
       </c>
       <c r="X51" t="s">
-        <v>481</v>
+        <v>442</v>
       </c>
       <c r="Y51" t="s">
-        <v>482</v>
+        <v>443</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>32595</v>
       </c>
-      <c r="B52" t="n">
-        <v>136239</v>
-      </c>
-      <c r="C52" t="s">
-        <v>223</v>
-      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>483</v>
+        <v>444</v>
       </c>
       <c r="G52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>484</v>
+        <v>445</v>
       </c>
       <c r="J52" t="s">
-        <v>485</v>
+        <v>437</v>
       </c>
       <c r="K52" t="s">
-        <v>486</v>
+        <v>446</v>
       </c>
       <c r="L52" t="s">
-        <v>487</v>
+        <v>447</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="O52" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
-      <c r="R52" t="s"/>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
       <c r="S52" t="s"/>
       <c r="T52" t="s"/>
-      <c r="U52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
       <c r="V52" t="n">
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>480</v>
+        <v>432</v>
       </c>
       <c r="X52" t="s">
-        <v>481</v>
+        <v>433</v>
       </c>
       <c r="Y52" t="s">
-        <v>488</v>
+        <v>448</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>32595</v>
       </c>
-      <c r="B53" t="n">
-        <v>1255</v>
-      </c>
-      <c r="C53" t="s">
-        <v>489</v>
-      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>490</v>
+        <v>449</v>
       </c>
       <c r="G53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>491</v>
+        <v>450</v>
       </c>
       <c r="J53" t="s">
-        <v>492</v>
+        <v>451</v>
       </c>
       <c r="K53" t="s">
-        <v>493</v>
+        <v>452</v>
       </c>
       <c r="L53" t="s">
-        <v>494</v>
+        <v>453</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>455</v>
+        <v>155</v>
       </c>
       <c r="O53" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -5917,123 +5627,117 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>495</v>
+        <v>454</v>
       </c>
       <c r="X53" t="s">
-        <v>496</v>
+        <v>455</v>
       </c>
       <c r="Y53" t="s">
-        <v>497</v>
+        <v>456</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>32595</v>
       </c>
-      <c r="B54" t="n">
-        <v>136263</v>
-      </c>
-      <c r="C54" t="s">
-        <v>498</v>
-      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>499</v>
+        <v>457</v>
       </c>
       <c r="G54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>500</v>
+        <v>458</v>
       </c>
       <c r="J54" t="s">
-        <v>501</v>
+        <v>459</v>
       </c>
       <c r="K54" t="s">
-        <v>502</v>
+        <v>460</v>
       </c>
       <c r="L54" t="s">
-        <v>503</v>
+        <v>461</v>
       </c>
       <c r="M54" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>396</v>
+        <v>155</v>
       </c>
       <c r="O54" t="s">
-        <v>203</v>
+        <v>91</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
       <c r="R54" t="s"/>
       <c r="S54" t="s"/>
       <c r="T54" t="s"/>
-      <c r="U54" t="n">
-        <v>1</v>
-      </c>
+      <c r="U54" t="s"/>
       <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="s"/>
-      <c r="X54" t="s"/>
+      <c r="W54" t="s">
+        <v>454</v>
+      </c>
+      <c r="X54" t="s">
+        <v>455</v>
+      </c>
       <c r="Y54" t="s">
-        <v>504</v>
+        <v>462</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>32595</v>
       </c>
-      <c r="B55" t="n">
-        <v>136264</v>
-      </c>
-      <c r="C55" t="s">
-        <v>505</v>
-      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>506</v>
+        <v>463</v>
       </c>
       <c r="G55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>507</v>
+        <v>464</v>
       </c>
       <c r="J55" t="s">
-        <v>508</v>
+        <v>465</v>
       </c>
       <c r="K55" t="s">
-        <v>509</v>
+        <v>466</v>
       </c>
       <c r="L55" t="s">
-        <v>510</v>
+        <v>467</v>
       </c>
       <c r="M55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>511</v>
+        <v>431</v>
       </c>
       <c r="O55" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -6045,701 +5749,781 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>512</v>
+        <v>468</v>
       </c>
       <c r="X55" t="s">
-        <v>513</v>
+        <v>469</v>
       </c>
       <c r="Y55" t="s">
-        <v>514</v>
+        <v>470</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>32595</v>
       </c>
-      <c r="B56" t="n">
-        <v>136265</v>
-      </c>
-      <c r="C56" t="s">
-        <v>515</v>
-      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>516</v>
+        <v>471</v>
       </c>
       <c r="G56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>517</v>
+        <v>472</v>
       </c>
       <c r="J56" t="s">
-        <v>518</v>
+        <v>473</v>
       </c>
       <c r="K56" t="s">
-        <v>519</v>
+        <v>474</v>
       </c>
       <c r="L56" t="s">
-        <v>520</v>
+        <v>475</v>
       </c>
       <c r="M56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N56" t="s">
-        <v>511</v>
+        <v>379</v>
       </c>
       <c r="O56" t="s">
-        <v>54</v>
+        <v>204</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
       <c r="R56" t="s"/>
       <c r="S56" t="s"/>
       <c r="T56" t="s"/>
-      <c r="U56" t="s"/>
+      <c r="U56" t="n">
+        <v>1</v>
+      </c>
       <c r="V56" t="n">
         <v>0</v>
       </c>
-      <c r="W56" t="s">
-        <v>521</v>
-      </c>
-      <c r="X56" t="s">
-        <v>522</v>
-      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>523</v>
+        <v>476</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>32595</v>
       </c>
-      <c r="B57" t="n">
-        <v>10306</v>
-      </c>
-      <c r="C57" t="s">
-        <v>524</v>
-      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>525</v>
+        <v>477</v>
       </c>
       <c r="G57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>526</v>
+        <v>478</v>
       </c>
       <c r="J57" t="s">
-        <v>527</v>
+        <v>479</v>
       </c>
       <c r="K57" t="s">
-        <v>528</v>
+        <v>480</v>
       </c>
       <c r="L57" t="s">
-        <v>529</v>
+        <v>481</v>
       </c>
       <c r="M57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N57" t="s">
-        <v>530</v>
+        <v>482</v>
       </c>
       <c r="O57" t="s">
-        <v>86</v>
-      </c>
-      <c r="P57" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>4</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
       <c r="R57" t="s"/>
       <c r="S57" t="s"/>
       <c r="T57" t="s"/>
-      <c r="U57" t="n">
-        <v>5</v>
-      </c>
+      <c r="U57" t="s"/>
       <c r="V57" t="n">
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>531</v>
+        <v>483</v>
       </c>
       <c r="X57" t="s">
-        <v>532</v>
+        <v>484</v>
       </c>
       <c r="Y57" t="s">
-        <v>533</v>
+        <v>485</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>32595</v>
       </c>
-      <c r="B58" t="n">
-        <v>136266</v>
-      </c>
-      <c r="C58" t="s">
-        <v>534</v>
-      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>535</v>
+        <v>486</v>
       </c>
       <c r="G58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>536</v>
+        <v>487</v>
       </c>
       <c r="J58" t="s">
-        <v>537</v>
+        <v>488</v>
       </c>
       <c r="K58" t="s">
-        <v>538</v>
+        <v>489</v>
       </c>
       <c r="L58" t="s">
-        <v>539</v>
+        <v>490</v>
       </c>
       <c r="M58" t="n">
         <v>2</v>
       </c>
       <c r="N58" t="s">
-        <v>540</v>
+        <v>482</v>
       </c>
       <c r="O58" t="s">
-        <v>75</v>
-      </c>
-      <c r="P58" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
       <c r="R58" t="s"/>
-      <c r="S58" t="n">
-        <v>2</v>
-      </c>
+      <c r="S58" t="s"/>
       <c r="T58" t="s"/>
-      <c r="U58" t="n">
-        <v>4</v>
-      </c>
+      <c r="U58" t="s"/>
       <c r="V58" t="n">
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>541</v>
+        <v>491</v>
       </c>
       <c r="X58" t="s">
-        <v>542</v>
+        <v>492</v>
       </c>
       <c r="Y58" t="s">
-        <v>543</v>
+        <v>493</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>32595</v>
       </c>
-      <c r="B59" t="n">
-        <v>136267</v>
-      </c>
-      <c r="C59" t="s">
-        <v>544</v>
-      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>545</v>
+        <v>494</v>
       </c>
       <c r="G59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>546</v>
+        <v>495</v>
       </c>
       <c r="J59" t="s">
-        <v>547</v>
+        <v>496</v>
       </c>
       <c r="K59" t="s">
-        <v>548</v>
+        <v>497</v>
       </c>
       <c r="L59" t="s">
-        <v>549</v>
+        <v>498</v>
       </c>
       <c r="M59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>540</v>
+        <v>499</v>
       </c>
       <c r="O59" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="P59" t="n">
         <v>4</v>
       </c>
-      <c r="Q59" t="s"/>
-      <c r="R59" t="n">
+      <c r="Q59" t="n">
         <v>4</v>
       </c>
+      <c r="R59" t="s"/>
       <c r="S59" t="s"/>
       <c r="T59" t="s"/>
       <c r="U59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V59" t="n">
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="X59" t="s">
-        <v>551</v>
+        <v>501</v>
       </c>
       <c r="Y59" t="s">
-        <v>552</v>
+        <v>502</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>32595</v>
       </c>
-      <c r="B60" t="n">
-        <v>136268</v>
-      </c>
-      <c r="C60" t="s">
-        <v>553</v>
-      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>554</v>
+        <v>503</v>
       </c>
       <c r="G60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>555</v>
+        <v>504</v>
       </c>
       <c r="J60" t="s">
-        <v>556</v>
+        <v>505</v>
       </c>
       <c r="K60" t="s">
-        <v>557</v>
+        <v>506</v>
       </c>
       <c r="L60" t="s">
-        <v>558</v>
+        <v>507</v>
       </c>
       <c r="M60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N60" t="s">
-        <v>559</v>
+        <v>508</v>
       </c>
       <c r="O60" t="s">
-        <v>75</v>
-      </c>
-      <c r="P60" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
       <c r="Q60" t="s"/>
       <c r="R60" t="s"/>
       <c r="S60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T60" t="s"/>
       <c r="U60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>560</v>
+        <v>509</v>
       </c>
       <c r="X60" t="s">
-        <v>561</v>
+        <v>510</v>
       </c>
       <c r="Y60" t="s">
-        <v>562</v>
+        <v>511</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>32595</v>
       </c>
-      <c r="B61" t="n">
-        <v>136269</v>
-      </c>
-      <c r="C61" t="s">
-        <v>563</v>
-      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>564</v>
+        <v>512</v>
       </c>
       <c r="G61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>565</v>
+        <v>513</v>
       </c>
       <c r="J61" t="s">
-        <v>566</v>
+        <v>514</v>
       </c>
       <c r="K61" t="s">
-        <v>567</v>
+        <v>515</v>
       </c>
       <c r="L61" t="s">
-        <v>568</v>
+        <v>516</v>
       </c>
       <c r="M61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N61" t="s">
-        <v>559</v>
+        <v>508</v>
       </c>
       <c r="O61" t="s">
-        <v>203</v>
-      </c>
-      <c r="P61" t="s"/>
-      <c r="Q61" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="s"/>
       <c r="R61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S61" t="s"/>
       <c r="T61" t="s"/>
       <c r="U61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V61" t="n">
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>569</v>
+        <v>517</v>
       </c>
       <c r="X61" t="s">
-        <v>570</v>
+        <v>518</v>
       </c>
       <c r="Y61" t="s">
-        <v>571</v>
+        <v>519</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>32595</v>
       </c>
-      <c r="B62" t="n">
-        <v>136270</v>
-      </c>
-      <c r="C62" t="s">
-        <v>572</v>
-      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>573</v>
+        <v>520</v>
       </c>
       <c r="G62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>574</v>
+        <v>521</v>
       </c>
       <c r="J62" t="s">
-        <v>575</v>
+        <v>522</v>
       </c>
       <c r="K62" t="s">
-        <v>576</v>
+        <v>523</v>
       </c>
       <c r="L62" t="s">
-        <v>577</v>
+        <v>524</v>
       </c>
       <c r="M62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>578</v>
+        <v>525</v>
       </c>
       <c r="O62" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P62" t="s"/>
       <c r="Q62" t="s"/>
       <c r="R62" t="s"/>
       <c r="S62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T62" t="s"/>
       <c r="U62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V62" t="n">
         <v>0</v>
       </c>
-      <c r="W62" t="s"/>
-      <c r="X62" t="s"/>
+      <c r="W62" t="s">
+        <v>526</v>
+      </c>
+      <c r="X62" t="s">
+        <v>527</v>
+      </c>
       <c r="Y62" t="s">
-        <v>579</v>
+        <v>528</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>32595</v>
       </c>
-      <c r="B63" t="n">
-        <v>136271</v>
-      </c>
-      <c r="C63" t="s">
-        <v>580</v>
-      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>581</v>
+        <v>529</v>
       </c>
       <c r="G63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>582</v>
+        <v>530</v>
       </c>
       <c r="J63" t="s">
-        <v>583</v>
+        <v>531</v>
       </c>
       <c r="K63" t="s">
-        <v>584</v>
+        <v>532</v>
       </c>
       <c r="L63" t="s">
-        <v>585</v>
+        <v>533</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>586</v>
+        <v>525</v>
       </c>
       <c r="O63" t="s">
-        <v>86</v>
-      </c>
-      <c r="P63" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q63" t="s"/>
+        <v>204</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
       <c r="R63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S63" t="s"/>
       <c r="T63" t="s"/>
       <c r="U63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V63" t="n">
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>587</v>
+        <v>534</v>
       </c>
       <c r="X63" t="s">
-        <v>588</v>
+        <v>535</v>
       </c>
       <c r="Y63" t="s">
-        <v>589</v>
+        <v>536</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>32595</v>
       </c>
-      <c r="B64" t="n">
-        <v>136272</v>
-      </c>
-      <c r="C64" t="s">
-        <v>590</v>
-      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>591</v>
+        <v>537</v>
       </c>
       <c r="G64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>592</v>
+        <v>538</v>
       </c>
       <c r="J64" t="s">
-        <v>593</v>
+        <v>539</v>
       </c>
       <c r="K64" t="s">
-        <v>594</v>
+        <v>540</v>
       </c>
       <c r="L64" t="s">
-        <v>595</v>
+        <v>541</v>
       </c>
       <c r="M64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N64" t="s">
-        <v>586</v>
+        <v>542</v>
       </c>
       <c r="O64" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="P64" t="s"/>
       <c r="Q64" t="s"/>
       <c r="R64" t="s"/>
       <c r="S64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T64" t="s"/>
       <c r="U64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V64" t="n">
         <v>0</v>
       </c>
-      <c r="W64" t="s">
-        <v>596</v>
-      </c>
-      <c r="X64" t="s">
-        <v>597</v>
-      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>598</v>
+        <v>543</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>32595</v>
       </c>
-      <c r="B65" t="n">
-        <v>136273</v>
-      </c>
-      <c r="C65" t="s">
-        <v>599</v>
-      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>600</v>
+        <v>544</v>
       </c>
       <c r="G65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>601</v>
+        <v>545</v>
       </c>
       <c r="J65" t="s">
-        <v>602</v>
+        <v>546</v>
       </c>
       <c r="K65" t="s">
-        <v>603</v>
+        <v>547</v>
       </c>
       <c r="L65" t="s">
-        <v>604</v>
+        <v>548</v>
       </c>
       <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>549</v>
+      </c>
+      <c r="O65" t="s">
+        <v>63</v>
+      </c>
+      <c r="P65" t="n">
         <v>4</v>
       </c>
-      <c r="N65" t="s">
-        <v>605</v>
-      </c>
-      <c r="O65" t="s">
-        <v>86</v>
-      </c>
-      <c r="P65" t="s"/>
       <c r="Q65" t="s"/>
-      <c r="R65" t="s"/>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
       <c r="S65" t="s"/>
       <c r="T65" t="s"/>
-      <c r="U65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
       <c r="V65" t="n">
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>606</v>
+        <v>550</v>
       </c>
       <c r="X65" t="s">
-        <v>607</v>
+        <v>551</v>
       </c>
       <c r="Y65" t="s">
-        <v>608</v>
+        <v>552</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>32595</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>553</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>554</v>
+      </c>
+      <c r="J66" t="s">
+        <v>555</v>
+      </c>
+      <c r="K66" t="s">
+        <v>556</v>
+      </c>
+      <c r="L66" t="s">
+        <v>557</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>549</v>
+      </c>
+      <c r="O66" t="s">
+        <v>63</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>558</v>
+      </c>
+      <c r="X66" t="s">
+        <v>559</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>32595</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>561</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>562</v>
+      </c>
+      <c r="J67" t="s">
+        <v>563</v>
+      </c>
+      <c r="K67" t="s">
+        <v>564</v>
+      </c>
+      <c r="L67" t="s">
+        <v>565</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>566</v>
+      </c>
+      <c r="O67" t="s">
+        <v>63</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>567</v>
+      </c>
+      <c r="X67" t="s">
+        <v>568</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>569</v>
       </c>
     </row>
   </sheetData>
